--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166502.3810468816</v>
+        <v>160722.3507001568</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8275956.585277525</v>
+        <v>8275956.585277523</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4690528.025617233</v>
+        <v>4690528.025617234</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>99.94988582715024</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>122.8736520367516</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>73.5621535881922</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -961,10 +961,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>8.109786280243839</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.1501654697139</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.0604902725266</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>108.2754695086084</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>251.8951392285019</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>148.7864081779834</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>71.71730035389572</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.0346945768795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>218.3532050129984</v>
       </c>
       <c r="Y11" t="n">
-        <v>191.8475400146562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T13" t="n">
-        <v>159.6158662242028</v>
+        <v>163.4656930879642</v>
       </c>
       <c r="U13" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>397.9158510059552</v>
       </c>
       <c r="D14" t="n">
-        <v>405.4164878341365</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3301761740106</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>159.6158662242028</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U16" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>267.139399496306</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4979621231041</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>306.8356969501836</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>134.0516947094215</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>18.67968079680788</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.1945700117134</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.9168363480075</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>65.4957075542678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.2554488666287</v>
       </c>
       <c r="U19" t="n">
         <v>275.6082638914593</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>28.29426170129842</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.3215847529424</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.7323838998532</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.18250152350733</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4979621231041</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>69.65492631724725</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.1945700117134</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>144.7389670897214</v>
       </c>
       <c r="T22" t="n">
-        <v>185.6745643571376</v>
+        <v>240.2554488666287</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6082638914593</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>131.4306284262784</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.7323838998532</v>
       </c>
       <c r="H23" t="n">
         <v>269.3257444444595</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T23" t="n">
-        <v>85.99049952724275</v>
+        <v>210.6372485941537</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>392.0014756698101</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>430.7931046280432</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>269.3257444444595</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.6372485941537</v>
       </c>
       <c r="U26" t="n">
-        <v>85.99049952724275</v>
+        <v>256.4979621231041</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2794,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>113.5233733616235</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>355.3162439717024</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>269.3257444444595</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.6372485941537</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4979621231041</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,10 +3037,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>403.3318341534546</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.18250152350733</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6372485941537</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>162.5422880685884</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>147.6419663778164</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.7323838998532</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>45.18250152350733</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4979621231041</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>339.6915280732629</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1945700117134</v>
+        <v>163.1945700117131</v>
       </c>
       <c r="H37" t="n">
         <v>131.9168363480075</v>
       </c>
       <c r="I37" t="n">
-        <v>65.49570755426747</v>
+        <v>65.4957075542678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6372485941537</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>144.6789953775489</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>17.55513814317247</v>
       </c>
     </row>
     <row r="39">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>186.8241179013374</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.7323838998532</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>269.3257444444595</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>109.6119021027355</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1945700117134</v>
+        <v>23.8577817936694</v>
       </c>
       <c r="H43" t="n">
         <v>131.9168363480075</v>
       </c>
       <c r="I43" t="n">
-        <v>65.4957075542678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>240.2554488666287</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6082638914593</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>175.8626956182263</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>245.3953545158195</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>170.6550673672446</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.7323838998532</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.18250152350733</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.6372485941537</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>110.7425657190166</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>144.7389670897214</v>
       </c>
       <c r="T46" t="n">
         <v>240.2554488666287</v>
@@ -4194,10 +4194,10 @@
         <v>275.6082638914593</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>184.3403847750409</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.504848503808</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="C2" t="n">
-        <v>863.9231742410761</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="D2" t="n">
-        <v>863.9231742410761</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E2" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4342,10 +4342,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1292.504848503808</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1292.504848503808</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.504848503808</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1292.504848503808</v>
+        <v>1319.688691389803</v>
       </c>
       <c r="Y2" t="n">
-        <v>1292.504848503808</v>
+        <v>1319.688691389803</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8041211489747</v>
+        <v>496.2114551296786</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>323.6497436129035</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>323.6497436129035</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>323.6497436129035</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>323.6497436129035</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>158.0584686387312</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1442.219034439147</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1163.786033692253</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>876.8305255626831</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="W4" t="n">
-        <v>604.8041211489747</v>
+        <v>741.6032097962661</v>
       </c>
       <c r="X4" t="n">
-        <v>604.8041211489747</v>
+        <v>496.2114551296786</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8041211489747</v>
+        <v>496.2114551296786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.9421322372</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y5" t="n">
-        <v>462.9421322372</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E7" t="n">
         <v>210.6507226398521</v>
@@ -4725,25 +4725,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>341.7616130750586</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
@@ -4752,25 +4752,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1182.693453837063</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1182.693453837063</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.4693996828083</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94366860160834</v>
+        <v>288.7999925487127</v>
       </c>
       <c r="C8" t="n">
-        <v>33.94366860160834</v>
+        <v>288.7999925487127</v>
       </c>
       <c r="D8" t="n">
-        <v>33.94366860160834</v>
+        <v>288.7999925487127</v>
       </c>
       <c r="E8" t="n">
-        <v>33.94366860160834</v>
+        <v>288.7999925487127</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>288.7999925487127</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N8" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1546.894128890535</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1287.671826207552</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1287.671826207552</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W8" t="n">
-        <v>1287.671826207552</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X8" t="n">
-        <v>868.5293627868627</v>
+        <v>715.0995630336205</v>
       </c>
       <c r="Y8" t="n">
-        <v>460.2432390865162</v>
+        <v>715.0995630336205</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4889,19 +4889,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2633838676462</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E10" t="n">
         <v>33.94366860160834</v>
@@ -4962,22 +4962,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1235.38760622724</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -5001,13 +5001,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>813.4737572532208</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>568.0820025866333</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>568.0820025866333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>462.52534286434</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="C11" t="n">
-        <v>33.94366860160834</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="D11" t="n">
-        <v>33.94366860160834</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>309.1171874557034</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
-        <v>85.02847154687564</v>
+        <v>85.02847154687562</v>
       </c>
       <c r="J11" t="n">
-        <v>198.3915302050084</v>
+        <v>198.3915302050083</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921387</v>
+        <v>368.2933687921386</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M11" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P11" t="n">
         <v>1469.044845016103</v>
@@ -5074,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1438.070150305401</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1075.453200239227</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1075.453200239227</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X11" t="n">
-        <v>656.3107368185382</v>
+        <v>709.1522324828544</v>
       </c>
       <c r="Y11" t="n">
-        <v>462.52534286434</v>
+        <v>709.1522324828544</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I12" t="n">
-        <v>84.0294895518185</v>
+        <v>84.61243668840937</v>
       </c>
       <c r="J12" t="n">
         <v>476.1060756401154</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5202,22 +5202,22 @@
         <v>76.30245582865298</v>
       </c>
       <c r="K13" t="n">
-        <v>145.9109553479574</v>
+        <v>420.669409919093</v>
       </c>
       <c r="L13" t="n">
-        <v>565.9638542928607</v>
+        <v>840.7223088639962</v>
       </c>
       <c r="M13" t="n">
-        <v>709.36024556032</v>
+        <v>934.6393164705195</v>
       </c>
       <c r="N13" t="n">
-        <v>801.0441166407935</v>
+        <v>1026.323187550993</v>
       </c>
       <c r="O13" t="n">
-        <v>1221.097015585697</v>
+        <v>1111.00808195836</v>
       </c>
       <c r="P13" t="n">
-        <v>1641.066466489124</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q13" t="n">
         <v>1691.235784882888</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="T13" t="n">
-        <v>1535.955282379202</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.555625216353</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="V13" t="n">
-        <v>970.6001170867833</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W13" t="n">
-        <v>698.5737126730747</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X13" t="n">
-        <v>453.1819580064872</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.7622873205955</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.4552724744735</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="C14" t="n">
-        <v>443.4552724744735</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F14" t="n">
         <v>33.94366860160834</v>
@@ -5284,10 +5284,10 @@
         <v>368.2933687921387</v>
       </c>
       <c r="L14" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077374</v>
       </c>
       <c r="M14" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780561</v>
       </c>
       <c r="N14" t="n">
         <v>1051.92942843149</v>
@@ -5317,13 +5317,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X14" t="n">
-        <v>1278.040966659728</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y14" t="n">
-        <v>869.7548429593813</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>84.0294895518185</v>
+        <v>84.61243668840937</v>
       </c>
       <c r="J15" t="n">
-        <v>476.1060756401154</v>
+        <v>152.130697810494</v>
       </c>
       <c r="K15" t="n">
-        <v>591.5055380481646</v>
+        <v>267.5301602185432</v>
       </c>
       <c r="L15" t="n">
-        <v>746.6743564339777</v>
+        <v>422.6989786043561</v>
       </c>
       <c r="M15" t="n">
-        <v>927.7490486498834</v>
+        <v>603.7736708202619</v>
       </c>
       <c r="N15" t="n">
-        <v>1113.616249164181</v>
+        <v>789.64087133456</v>
       </c>
       <c r="O15" t="n">
-        <v>1283.648425529704</v>
+        <v>959.6730477000826</v>
       </c>
       <c r="P15" t="n">
-        <v>1420.114237364499</v>
+        <v>1096.138859534878</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.338018604792</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>711.2666951209363</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>711.2666951209363</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>545.388702322459</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>375.6306985731962</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>198.9236445349524</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5439,22 +5439,22 @@
         <v>76.30245582865298</v>
       </c>
       <c r="K16" t="n">
-        <v>145.9109553479574</v>
+        <v>420.669409919093</v>
       </c>
       <c r="L16" t="n">
-        <v>308.4452127213286</v>
+        <v>840.7223088639962</v>
       </c>
       <c r="M16" t="n">
-        <v>728.4981116662319</v>
+        <v>1224.042369203866</v>
       </c>
       <c r="N16" t="n">
-        <v>1148.551010611135</v>
+        <v>1315.72624028434</v>
       </c>
       <c r="O16" t="n">
-        <v>1568.603909556039</v>
+        <v>1400.411134691706</v>
       </c>
       <c r="P16" t="n">
-        <v>1641.066466489124</v>
+        <v>1472.873691624791</v>
       </c>
       <c r="Q16" t="n">
         <v>1691.235784882888</v>
@@ -5466,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.955282379202</v>
+        <v>1453.915897742412</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>1453.915897742412</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>1453.915897742412</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>1184.078120473416</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>938.686365806828</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>711.2666951209363</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1341.336060823735</v>
+        <v>915.6036712167936</v>
       </c>
       <c r="C17" t="n">
-        <v>903.1935880071585</v>
+        <v>477.4611984002169</v>
       </c>
       <c r="D17" t="n">
-        <v>903.1935880071585</v>
+        <v>41.55141357466142</v>
       </c>
       <c r="E17" t="n">
-        <v>469.4188431654537</v>
+        <v>41.55141357466142</v>
       </c>
       <c r="F17" t="n">
         <v>41.55141357466142</v>
@@ -5512,28 +5512,28 @@
         <v>41.55141357466142</v>
       </c>
       <c r="I17" t="n">
-        <v>104.1745005722212</v>
+        <v>104.1745005722208</v>
       </c>
       <c r="J17" t="n">
-        <v>242.9392176463641</v>
+        <v>242.9392176463637</v>
       </c>
       <c r="K17" t="n">
-        <v>450.9115574984385</v>
+        <v>450.9115574984381</v>
       </c>
       <c r="L17" t="n">
-        <v>708.9196352572013</v>
+        <v>708.9196352572009</v>
       </c>
       <c r="M17" t="n">
-        <v>996.0033345982234</v>
+        <v>996.003334598223</v>
       </c>
       <c r="N17" t="n">
-        <v>1287.732348331351</v>
+        <v>1287.73234833135</v>
       </c>
       <c r="O17" t="n">
         <v>1563.203783538655</v>
       </c>
       <c r="P17" t="n">
-        <v>1798.312280231191</v>
+        <v>1798.31228023119</v>
       </c>
       <c r="Q17" t="n">
         <v>1974.868969913693</v>
@@ -5548,19 +5548,19 @@
         <v>2077.570678733071</v>
       </c>
       <c r="U17" t="n">
-        <v>2077.570678733071</v>
+        <v>1818.481828103673</v>
       </c>
       <c r="V17" t="n">
-        <v>2077.570678733071</v>
+        <v>1455.864878037499</v>
       </c>
       <c r="W17" t="n">
-        <v>2077.570678733071</v>
+        <v>1051.009423448533</v>
       </c>
       <c r="X17" t="n">
-        <v>1767.635631308643</v>
+        <v>1051.009423448533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.635631308643</v>
+        <v>915.6036712167936</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>41.55141357466142</v>
       </c>
       <c r="I18" t="n">
-        <v>71.66985847594964</v>
+        <v>97.73353163640724</v>
       </c>
       <c r="J18" t="n">
-        <v>353.530825988167</v>
+        <v>180.3808464922861</v>
       </c>
       <c r="K18" t="n">
-        <v>494.7882509474954</v>
+        <v>321.6382714516146</v>
       </c>
       <c r="L18" t="n">
-        <v>684.7262910542818</v>
+        <v>511.576311558401</v>
       </c>
       <c r="M18" t="n">
-        <v>906.3750250603225</v>
+        <v>733.2250455644416</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.890141519111</v>
+        <v>960.7401620232303</v>
       </c>
       <c r="O18" t="n">
-        <v>1342.022024393019</v>
+        <v>1168.872044897139</v>
       </c>
       <c r="P18" t="n">
-        <v>1509.066209630253</v>
+        <v>1335.916230134373</v>
       </c>
       <c r="Q18" t="n">
-        <v>1620.730823694851</v>
+        <v>1503.558045600511</v>
       </c>
       <c r="R18" t="n">
         <v>1675.043779876078</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>575.5665363693777</v>
+        <v>1090.70578569155</v>
       </c>
       <c r="C19" t="n">
-        <v>403.0048248526026</v>
+        <v>918.1440741747753</v>
       </c>
       <c r="D19" t="n">
-        <v>237.1268320541253</v>
+        <v>752.266081376298</v>
       </c>
       <c r="E19" t="n">
-        <v>218.2584676129052</v>
+        <v>582.5080776270353</v>
       </c>
       <c r="F19" t="n">
-        <v>41.55141357466142</v>
+        <v>405.8010235887915</v>
       </c>
       <c r="G19" t="n">
-        <v>41.55141357466142</v>
+        <v>240.9580235769597</v>
       </c>
       <c r="H19" t="n">
-        <v>41.55141357466142</v>
+        <v>107.7086939325077</v>
       </c>
       <c r="I19" t="n">
         <v>41.55141357466142</v>
       </c>
       <c r="J19" t="n">
-        <v>93.40168291937427</v>
+        <v>179.9813680840641</v>
       </c>
       <c r="K19" t="n">
-        <v>178.6076032261031</v>
+        <v>506.1911914349697</v>
       </c>
       <c r="L19" t="n">
-        <v>692.8063462125381</v>
+        <v>615.225434055959</v>
       </c>
       <c r="M19" t="n">
-        <v>1207.005089198973</v>
+        <v>1129.424177042394</v>
       </c>
       <c r="N19" t="n">
-        <v>1721.203832185408</v>
+        <v>1643.622920028829</v>
       </c>
       <c r="O19" t="n">
-        <v>1915.4762308031</v>
+        <v>1747.283455938768</v>
       </c>
       <c r="P19" t="n">
-        <v>2004.175727185003</v>
+        <v>1835.982952320671</v>
       </c>
       <c r="Q19" t="n">
         <v>2065.586660827044</v>
@@ -5703,22 +5703,22 @@
         <v>2077.570678733071</v>
       </c>
       <c r="T19" t="n">
-        <v>2077.570678733071</v>
+        <v>1834.888407150618</v>
       </c>
       <c r="U19" t="n">
-        <v>1799.178492984122</v>
+        <v>1556.496221401669</v>
       </c>
       <c r="V19" t="n">
-        <v>1512.222984854553</v>
+        <v>1556.496221401669</v>
       </c>
       <c r="W19" t="n">
-        <v>1240.196580440844</v>
+        <v>1556.496221401669</v>
       </c>
       <c r="X19" t="n">
-        <v>994.8048257742566</v>
+        <v>1311.104466735081</v>
       </c>
       <c r="Y19" t="n">
-        <v>767.3851550883649</v>
+        <v>1282.524404410537</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1777.245845649291</v>
+        <v>875.0558391232887</v>
       </c>
       <c r="C20" t="n">
-        <v>1339.103372832714</v>
+        <v>875.0558391232887</v>
       </c>
       <c r="D20" t="n">
-        <v>903.1935880071585</v>
+        <v>875.0558391232887</v>
       </c>
       <c r="E20" t="n">
-        <v>469.4188431654537</v>
+        <v>441.2810942815839</v>
       </c>
       <c r="F20" t="n">
-        <v>41.55141357466142</v>
+        <v>441.2810942815839</v>
       </c>
       <c r="G20" t="n">
-        <v>41.55141357466142</v>
+        <v>41.55141357466141</v>
       </c>
       <c r="H20" t="n">
-        <v>41.55141357466142</v>
+        <v>41.55141357466141</v>
       </c>
       <c r="I20" t="n">
         <v>104.1745005722209</v>
@@ -5758,10 +5758,10 @@
         <v>450.9115574984381</v>
       </c>
       <c r="L20" t="n">
-        <v>708.919635257201</v>
+        <v>708.9196352572009</v>
       </c>
       <c r="M20" t="n">
-        <v>996.0033345982231</v>
+        <v>996.003334598223</v>
       </c>
       <c r="N20" t="n">
         <v>1287.73234833135</v>
@@ -5779,25 +5779,25 @@
         <v>2077.570678733071</v>
       </c>
       <c r="S20" t="n">
-        <v>2077.570678733071</v>
+        <v>2031.931788305285</v>
       </c>
       <c r="T20" t="n">
-        <v>2077.570678733071</v>
+        <v>2031.931788305285</v>
       </c>
       <c r="U20" t="n">
-        <v>2077.570678733071</v>
+        <v>1772.842937675887</v>
       </c>
       <c r="V20" t="n">
-        <v>2077.570678733071</v>
+        <v>1702.484426244324</v>
       </c>
       <c r="W20" t="n">
-        <v>2077.570678733071</v>
+        <v>1702.484426244324</v>
       </c>
       <c r="X20" t="n">
-        <v>2077.570678733071</v>
+        <v>1283.341962823635</v>
       </c>
       <c r="Y20" t="n">
-        <v>2077.570678733071</v>
+        <v>875.0558391232887</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>431.7541075511605</v>
       </c>
       <c r="D21" t="n">
-        <v>336.6638186977138</v>
+        <v>336.6638186977137</v>
       </c>
       <c r="E21" t="n">
-        <v>242.5434040246675</v>
+        <v>242.5434040246674</v>
       </c>
       <c r="F21" t="n">
         <v>159.1595656408291</v>
       </c>
       <c r="G21" t="n">
-        <v>74.6670152017156</v>
+        <v>74.66701520171559</v>
       </c>
       <c r="H21" t="n">
-        <v>41.55141357466142</v>
+        <v>41.55141357466141</v>
       </c>
       <c r="I21" t="n">
-        <v>71.66985847594964</v>
+        <v>97.73353163640722</v>
       </c>
       <c r="J21" t="n">
-        <v>154.3171733318286</v>
+        <v>180.3808464922861</v>
       </c>
       <c r="K21" t="n">
-        <v>295.574598291157</v>
+        <v>321.6382714516146</v>
       </c>
       <c r="L21" t="n">
-        <v>485.5126383979434</v>
+        <v>511.576311558401</v>
       </c>
       <c r="M21" t="n">
-        <v>707.161372403984</v>
+        <v>733.2250455644416</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.890141519111</v>
+        <v>960.7401620232301</v>
       </c>
       <c r="O21" t="n">
-        <v>1342.022024393019</v>
+        <v>1168.872044897138</v>
       </c>
       <c r="P21" t="n">
-        <v>1509.066209630253</v>
+        <v>1335.916230134372</v>
       </c>
       <c r="Q21" t="n">
-        <v>1620.730823694851</v>
+        <v>1503.558045600511</v>
       </c>
       <c r="R21" t="n">
         <v>1675.043779876078</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>388.016471362168</v>
+        <v>891.299175689252</v>
       </c>
       <c r="C22" t="n">
-        <v>388.016471362168</v>
+        <v>718.737464172477</v>
       </c>
       <c r="D22" t="n">
-        <v>388.016471362168</v>
+        <v>552.8594713739997</v>
       </c>
       <c r="E22" t="n">
-        <v>218.2584676129052</v>
+        <v>383.101467624737</v>
       </c>
       <c r="F22" t="n">
-        <v>41.55141357466142</v>
+        <v>206.3944135864932</v>
       </c>
       <c r="G22" t="n">
-        <v>41.55141357466142</v>
+        <v>41.55141357466141</v>
       </c>
       <c r="H22" t="n">
-        <v>41.55141357466142</v>
+        <v>41.55141357466141</v>
       </c>
       <c r="I22" t="n">
-        <v>41.55141357466142</v>
+        <v>41.55141357466141</v>
       </c>
       <c r="J22" t="n">
         <v>179.9813680840641</v>
@@ -5931,31 +5931,31 @@
         <v>1835.982952320671</v>
       </c>
       <c r="Q22" t="n">
-        <v>2065.586660827044</v>
+        <v>2065.586660827043</v>
       </c>
       <c r="R22" t="n">
         <v>2077.570678733071</v>
       </c>
       <c r="S22" t="n">
-        <v>2077.570678733071</v>
+        <v>1931.369701874766</v>
       </c>
       <c r="T22" t="n">
-        <v>1890.020613725861</v>
+        <v>1688.687430292313</v>
       </c>
       <c r="U22" t="n">
-        <v>1611.628427976912</v>
+        <v>1688.687430292313</v>
       </c>
       <c r="V22" t="n">
-        <v>1324.672919847343</v>
+        <v>1688.687430292313</v>
       </c>
       <c r="W22" t="n">
-        <v>1052.646515433634</v>
+        <v>1555.929219760719</v>
       </c>
       <c r="X22" t="n">
-        <v>807.2547607670469</v>
+        <v>1310.537465094131</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.8350900811552</v>
+        <v>1083.117794408239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2067.741490888702</v>
+        <v>1169.919212337571</v>
       </c>
       <c r="C23" t="n">
-        <v>1629.599018072125</v>
+        <v>731.7767395209946</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.689233246569</v>
+        <v>731.7767395209946</v>
       </c>
       <c r="E23" t="n">
-        <v>759.9144884048644</v>
+        <v>731.7767395209946</v>
       </c>
       <c r="F23" t="n">
-        <v>332.0470588140722</v>
+        <v>731.7767395209946</v>
       </c>
       <c r="G23" t="n">
         <v>332.0470588140722</v>
@@ -5989,52 +5989,52 @@
         <v>122.6239393020766</v>
       </c>
       <c r="J23" t="n">
-        <v>261.3886563762194</v>
+        <v>696.6433438291373</v>
       </c>
       <c r="K23" t="n">
-        <v>469.3609962282938</v>
+        <v>904.6156836812117</v>
       </c>
       <c r="L23" t="n">
-        <v>1211.871543496693</v>
+        <v>1162.623761439974</v>
       </c>
       <c r="M23" t="n">
-        <v>1918.475271091009</v>
+        <v>1449.707460780997</v>
       </c>
       <c r="N23" t="n">
-        <v>2210.204284824136</v>
+        <v>1741.436474514124</v>
       </c>
       <c r="O23" t="n">
-        <v>2485.675720031441</v>
+        <v>2016.907909721429</v>
       </c>
       <c r="P23" t="n">
-        <v>2720.784216723977</v>
+        <v>2252.016406413964</v>
       </c>
       <c r="Q23" t="n">
-        <v>2897.34090640648</v>
+        <v>2728.186841653423</v>
       </c>
       <c r="R23" t="n">
         <v>3000.042615225857</v>
       </c>
       <c r="S23" t="n">
-        <v>3000.042615225857</v>
+        <v>2954.403724798072</v>
       </c>
       <c r="T23" t="n">
-        <v>2913.183524794299</v>
+        <v>2741.63882722822</v>
       </c>
       <c r="U23" t="n">
-        <v>2913.183524794299</v>
+        <v>2741.63882722822</v>
       </c>
       <c r="V23" t="n">
-        <v>2913.183524794299</v>
+        <v>2379.021877162046</v>
       </c>
       <c r="W23" t="n">
-        <v>2913.183524794299</v>
+        <v>1974.166422573079</v>
       </c>
       <c r="X23" t="n">
-        <v>2494.041061373609</v>
+        <v>1578.205336037918</v>
       </c>
       <c r="Y23" t="n">
-        <v>2494.041061373609</v>
+        <v>1169.919212337571</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>116.1829703662629</v>
       </c>
       <c r="J24" t="n">
-        <v>198.8302852221418</v>
+        <v>198.8302852221419</v>
       </c>
       <c r="K24" t="n">
-        <v>340.0877101814702</v>
+        <v>340.0877101814703</v>
       </c>
       <c r="L24" t="n">
-        <v>586.0029516897978</v>
+        <v>530.0257502882567</v>
       </c>
       <c r="M24" t="n">
-        <v>807.6516856958385</v>
+        <v>751.6744842942975</v>
       </c>
       <c r="N24" t="n">
-        <v>1035.166802154627</v>
+        <v>979.1896007530861</v>
       </c>
       <c r="O24" t="n">
-        <v>1243.298685028535</v>
+        <v>1187.321483626994</v>
       </c>
       <c r="P24" t="n">
-        <v>1410.342870265769</v>
+        <v>1354.365668864229</v>
       </c>
       <c r="Q24" t="n">
         <v>1522.007484330367</v>
@@ -6126,7 +6126,7 @@
         <v>1109.155224421406</v>
       </c>
       <c r="C25" t="n">
-        <v>936.5935129046308</v>
+        <v>936.5935129046306</v>
       </c>
       <c r="D25" t="n">
         <v>770.7155201061535</v>
@@ -6138,10 +6138,10 @@
         <v>424.2504623186469</v>
       </c>
       <c r="G25" t="n">
-        <v>259.4074623068154</v>
+        <v>259.407462306815</v>
       </c>
       <c r="H25" t="n">
-        <v>126.1581326623634</v>
+        <v>126.1581326623632</v>
       </c>
       <c r="I25" t="n">
         <v>60.00085230451714</v>
@@ -6150,10 +6150,10 @@
         <v>111.85112164923</v>
       </c>
       <c r="K25" t="n">
-        <v>310.9355744973639</v>
+        <v>310.9355744973638</v>
       </c>
       <c r="L25" t="n">
-        <v>838.1796988863143</v>
+        <v>838.1796988863142</v>
       </c>
       <c r="M25" t="n">
         <v>1412.624887182167</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2067.741490888702</v>
+        <v>933.2878752504304</v>
       </c>
       <c r="C26" t="n">
-        <v>1629.599018072125</v>
+        <v>495.1454024338537</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.689233246569</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="E26" t="n">
-        <v>759.9144884048644</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="F26" t="n">
-        <v>332.0470588140722</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="G26" t="n">
-        <v>332.0470588140722</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="H26" t="n">
         <v>60.00085230451714</v>
@@ -6244,7 +6244,7 @@
         <v>2016.907909721429</v>
       </c>
       <c r="P26" t="n">
-        <v>2252.016406413964</v>
+        <v>2551.63015197092</v>
       </c>
       <c r="Q26" t="n">
         <v>2728.186841653423</v>
@@ -6256,22 +6256,22 @@
         <v>3000.042615225857</v>
       </c>
       <c r="T26" t="n">
-        <v>3000.042615225857</v>
+        <v>2787.277717656005</v>
       </c>
       <c r="U26" t="n">
-        <v>2913.183524794299</v>
+        <v>2528.188867026607</v>
       </c>
       <c r="V26" t="n">
-        <v>2913.183524794299</v>
+        <v>2165.571916960433</v>
       </c>
       <c r="W26" t="n">
-        <v>2913.183524794299</v>
+        <v>1760.716462371466</v>
       </c>
       <c r="X26" t="n">
-        <v>2494.041061373609</v>
+        <v>1341.573998950777</v>
       </c>
       <c r="Y26" t="n">
-        <v>2494.041061373609</v>
+        <v>933.2878752504304</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.00085230451714</v>
       </c>
       <c r="I27" t="n">
-        <v>90.11929720580535</v>
+        <v>116.1829703662629</v>
       </c>
       <c r="J27" t="n">
-        <v>172.7666120616843</v>
+        <v>198.8302852221419</v>
       </c>
       <c r="K27" t="n">
-        <v>314.0240370210126</v>
+        <v>340.0877101814703</v>
       </c>
       <c r="L27" t="n">
-        <v>503.962077127799</v>
+        <v>530.0257502882567</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8244637901782</v>
+        <v>751.6744842942975</v>
       </c>
       <c r="N27" t="n">
-        <v>1152.339580248967</v>
+        <v>979.1896007530861</v>
       </c>
       <c r="O27" t="n">
-        <v>1360.471463122875</v>
+        <v>1187.321483626994</v>
       </c>
       <c r="P27" t="n">
-        <v>1527.515648360109</v>
+        <v>1354.365668864229</v>
       </c>
       <c r="Q27" t="n">
-        <v>1639.180262424707</v>
+        <v>1522.007484330367</v>
       </c>
       <c r="R27" t="n">
         <v>1693.493218605934</v>
@@ -6390,19 +6390,19 @@
         <v>558.3951816917843</v>
       </c>
       <c r="L28" t="n">
-        <v>1085.639306080735</v>
+        <v>669.9869240219818</v>
       </c>
       <c r="M28" t="n">
-        <v>1660.084494376587</v>
+        <v>1244.432112317834</v>
       </c>
       <c r="N28" t="n">
-        <v>2214.571095384245</v>
+        <v>1798.918713325492</v>
       </c>
       <c r="O28" t="n">
-        <v>2737.900880519966</v>
+        <v>2322.248498461212</v>
       </c>
       <c r="P28" t="n">
-        <v>2826.600376901868</v>
+        <v>2758.454888813457</v>
       </c>
       <c r="Q28" t="n">
         <v>2988.05859731983</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2154.60058132026</v>
+        <v>880.491877758427</v>
       </c>
       <c r="C29" t="n">
-        <v>1716.458108503683</v>
+        <v>880.491877758427</v>
       </c>
       <c r="D29" t="n">
-        <v>1280.548323678128</v>
+        <v>765.821803655777</v>
       </c>
       <c r="E29" t="n">
-        <v>846.773578836423</v>
+        <v>332.0470588140722</v>
       </c>
       <c r="F29" t="n">
-        <v>418.9061492456307</v>
+        <v>332.0470588140722</v>
       </c>
       <c r="G29" t="n">
-        <v>60.00085230451714</v>
+        <v>332.0470588140722</v>
       </c>
       <c r="H29" t="n">
         <v>60.00085230451714</v>
@@ -6484,31 +6484,31 @@
         <v>2252.016406413964</v>
       </c>
       <c r="Q29" t="n">
-        <v>2728.186841653423</v>
+        <v>2897.34090640648</v>
       </c>
       <c r="R29" t="n">
         <v>3000.042615225857</v>
       </c>
       <c r="S29" t="n">
-        <v>3000.042615225857</v>
+        <v>2954.403724798072</v>
       </c>
       <c r="T29" t="n">
-        <v>3000.042615225857</v>
+        <v>2741.63882722822</v>
       </c>
       <c r="U29" t="n">
-        <v>3000.042615225857</v>
+        <v>2482.549976598822</v>
       </c>
       <c r="V29" t="n">
-        <v>3000.042615225857</v>
+        <v>2119.933026532648</v>
       </c>
       <c r="W29" t="n">
-        <v>3000.042615225857</v>
+        <v>1715.077571943681</v>
       </c>
       <c r="X29" t="n">
-        <v>2580.900151805168</v>
+        <v>1715.077571943681</v>
       </c>
       <c r="Y29" t="n">
-        <v>2580.900151805168</v>
+        <v>1306.791448243335</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>116.1829703662629</v>
       </c>
       <c r="J30" t="n">
-        <v>198.8302852221418</v>
+        <v>254.8074866236829</v>
       </c>
       <c r="K30" t="n">
-        <v>340.0877101814702</v>
+        <v>396.0649115830113</v>
       </c>
       <c r="L30" t="n">
-        <v>530.0257502882566</v>
+        <v>586.0029516897977</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6744842942974</v>
+        <v>807.6516856958384</v>
       </c>
       <c r="N30" t="n">
-        <v>979.1896007530859</v>
+        <v>1035.166802154627</v>
       </c>
       <c r="O30" t="n">
-        <v>1187.321483626994</v>
+        <v>1243.298685028535</v>
       </c>
       <c r="P30" t="n">
-        <v>1354.365668864228</v>
+        <v>1410.342870265769</v>
       </c>
       <c r="Q30" t="n">
         <v>1522.007484330367</v>
@@ -6624,19 +6624,19 @@
         <v>111.85112164923</v>
       </c>
       <c r="K31" t="n">
-        <v>310.9355744973635</v>
+        <v>310.9355744973638</v>
       </c>
       <c r="L31" t="n">
-        <v>838.1796988863139</v>
+        <v>838.1796988863142</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.624887182166</v>
+        <v>1412.624887182167</v>
       </c>
       <c r="N31" t="n">
         <v>1967.111488189824</v>
       </c>
       <c r="O31" t="n">
-        <v>2490.441273325544</v>
+        <v>2490.441273325545</v>
       </c>
       <c r="P31" t="n">
         <v>2926.647663677789</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1795.695284379146</v>
+        <v>1341.459003030947</v>
       </c>
       <c r="C32" t="n">
-        <v>1357.55281156257</v>
+        <v>903.3165302143702</v>
       </c>
       <c r="D32" t="n">
-        <v>921.6430267370142</v>
+        <v>467.4067453888147</v>
       </c>
       <c r="E32" t="n">
-        <v>487.8682818953094</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="F32" t="n">
         <v>60.00085230451714</v>
@@ -6712,40 +6712,40 @@
         <v>1014.452773328079</v>
       </c>
       <c r="N32" t="n">
-        <v>1306.181787061206</v>
+        <v>1743.165172763041</v>
       </c>
       <c r="O32" t="n">
-        <v>1770.02286931979</v>
+        <v>2485.675720031441</v>
       </c>
       <c r="P32" t="n">
-        <v>2005.131366012325</v>
+        <v>2720.784216723977</v>
       </c>
       <c r="Q32" t="n">
-        <v>2728.186841653423</v>
+        <v>2897.34090640648</v>
       </c>
       <c r="R32" t="n">
         <v>3000.042615225857</v>
       </c>
       <c r="S32" t="n">
-        <v>2954.403724798072</v>
+        <v>3000.042615225857</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.63882722822</v>
+        <v>3000.042615225857</v>
       </c>
       <c r="U32" t="n">
-        <v>2741.63882722822</v>
+        <v>3000.042615225857</v>
       </c>
       <c r="V32" t="n">
-        <v>2379.021877162046</v>
+        <v>3000.042615225857</v>
       </c>
       <c r="W32" t="n">
-        <v>2214.837747799836</v>
+        <v>2595.18716063689</v>
       </c>
       <c r="X32" t="n">
-        <v>1795.695284379146</v>
+        <v>2176.044697216201</v>
       </c>
       <c r="Y32" t="n">
-        <v>1795.695284379146</v>
+        <v>1767.758573515855</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.00085230451714</v>
       </c>
       <c r="I33" t="n">
-        <v>90.11929720580535</v>
+        <v>116.1829703662629</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7666120616843</v>
+        <v>198.8302852221419</v>
       </c>
       <c r="K33" t="n">
-        <v>314.0240370210126</v>
+        <v>340.0877101814703</v>
       </c>
       <c r="L33" t="n">
-        <v>503.962077127799</v>
+        <v>530.0257502882567</v>
       </c>
       <c r="M33" t="n">
-        <v>725.6108111338398</v>
+        <v>751.6744842942975</v>
       </c>
       <c r="N33" t="n">
-        <v>953.1259275926284</v>
+        <v>979.1896007530861</v>
       </c>
       <c r="O33" t="n">
-        <v>1161.257810466537</v>
+        <v>1187.321483626994</v>
       </c>
       <c r="P33" t="n">
-        <v>1328.301995703771</v>
+        <v>1354.365668864229</v>
       </c>
       <c r="Q33" t="n">
-        <v>1639.180262424707</v>
+        <v>1522.007484330367</v>
       </c>
       <c r="R33" t="n">
         <v>1693.493218605934</v>
@@ -6837,7 +6837,7 @@
         <v>1109.155224421406</v>
       </c>
       <c r="C34" t="n">
-        <v>936.5935129046308</v>
+        <v>936.5935129046306</v>
       </c>
       <c r="D34" t="n">
         <v>770.7155201061535</v>
@@ -6849,7 +6849,7 @@
         <v>424.2504623186469</v>
       </c>
       <c r="G34" t="n">
-        <v>259.4074623068152</v>
+        <v>259.407462306815</v>
       </c>
       <c r="H34" t="n">
         <v>126.1581326623632</v>
@@ -6858,25 +6858,25 @@
         <v>60.00085230451714</v>
       </c>
       <c r="J34" t="n">
-        <v>111.85112164923</v>
+        <v>198.4308068139198</v>
       </c>
       <c r="K34" t="n">
-        <v>471.8154965270944</v>
+        <v>558.3951816917843</v>
       </c>
       <c r="L34" t="n">
-        <v>999.0596209160448</v>
+        <v>1085.639306080735</v>
       </c>
       <c r="M34" t="n">
-        <v>1573.504809211897</v>
+        <v>1660.084494376587</v>
       </c>
       <c r="N34" t="n">
-        <v>2127.991410219555</v>
+        <v>1798.918713325492</v>
       </c>
       <c r="O34" t="n">
-        <v>2651.321195355275</v>
+        <v>2322.248498461212</v>
       </c>
       <c r="P34" t="n">
-        <v>2926.647663677789</v>
+        <v>2758.454888813457</v>
       </c>
       <c r="Q34" t="n">
         <v>2988.05859731983</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1036.731261973764</v>
+        <v>1357.55281156257</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.731261973764</v>
+        <v>1357.55281156257</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.731261973764</v>
+        <v>921.6430267370142</v>
       </c>
       <c r="E35" t="n">
-        <v>887.5979626022319</v>
+        <v>487.8682818953094</v>
       </c>
       <c r="F35" t="n">
-        <v>459.7305330114396</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="G35" t="n">
         <v>60.00085230451714</v>
@@ -6937,28 +6937,28 @@
         <v>122.6239393020766</v>
       </c>
       <c r="J35" t="n">
-        <v>696.6433438291373</v>
+        <v>618.9123681805553</v>
       </c>
       <c r="K35" t="n">
-        <v>904.6156836812117</v>
+        <v>826.8847080326296</v>
       </c>
       <c r="L35" t="n">
-        <v>1162.623761439974</v>
+        <v>1084.892785791392</v>
       </c>
       <c r="M35" t="n">
-        <v>1449.707460780997</v>
+        <v>1371.976485132415</v>
       </c>
       <c r="N35" t="n">
-        <v>2041.05022007108</v>
+        <v>1663.705498865542</v>
       </c>
       <c r="O35" t="n">
-        <v>2316.521655278385</v>
+        <v>1939.176934072847</v>
       </c>
       <c r="P35" t="n">
-        <v>2551.63015197092</v>
+        <v>2174.285430765382</v>
       </c>
       <c r="Q35" t="n">
-        <v>2728.186841653423</v>
+        <v>2897.34090640648</v>
       </c>
       <c r="R35" t="n">
         <v>3000.042615225857</v>
@@ -6970,19 +6970,19 @@
         <v>2954.403724798072</v>
       </c>
       <c r="U35" t="n">
-        <v>2695.314874168674</v>
+        <v>2954.403724798072</v>
       </c>
       <c r="V35" t="n">
-        <v>2695.314874168674</v>
+        <v>2954.403724798072</v>
       </c>
       <c r="W35" t="n">
-        <v>2290.459419579707</v>
+        <v>2611.280969168513</v>
       </c>
       <c r="X35" t="n">
-        <v>1871.316956159018</v>
+        <v>2192.138505747824</v>
       </c>
       <c r="Y35" t="n">
-        <v>1463.030832458671</v>
+        <v>1783.852382047477</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1863.209404064296</v>
+        <v>556.6600074443739</v>
       </c>
       <c r="C36" t="n">
-        <v>1756.752942900939</v>
+        <v>450.2035462810162</v>
       </c>
       <c r="D36" t="n">
-        <v>1661.662654047492</v>
+        <v>355.1132574275695</v>
       </c>
       <c r="E36" t="n">
-        <v>1567.542239374446</v>
+        <v>260.9928427545232</v>
       </c>
       <c r="F36" t="n">
-        <v>1484.158400990607</v>
+        <v>177.6090043706848</v>
       </c>
       <c r="G36" t="n">
-        <v>1399.665850551494</v>
+        <v>93.11645393157131</v>
       </c>
       <c r="H36" t="n">
-        <v>1366.55024892444</v>
+        <v>60.00085230451714</v>
       </c>
       <c r="I36" t="n">
-        <v>1422.732366986186</v>
+        <v>116.1829703662629</v>
       </c>
       <c r="J36" t="n">
-        <v>1561.356883243605</v>
+        <v>198.8302852221419</v>
       </c>
       <c r="K36" t="n">
-        <v>1702.614308202933</v>
+        <v>340.0877101814703</v>
       </c>
       <c r="L36" t="n">
-        <v>1892.552348309719</v>
+        <v>530.0257502882567</v>
       </c>
       <c r="M36" t="n">
-        <v>2114.20108231576</v>
+        <v>751.6744842942975</v>
       </c>
       <c r="N36" t="n">
-        <v>2341.716198774549</v>
+        <v>979.1896007530861</v>
       </c>
       <c r="O36" t="n">
-        <v>2549.848081648458</v>
+        <v>1187.321483626994</v>
       </c>
       <c r="P36" t="n">
-        <v>2716.892266885692</v>
+        <v>1354.365668864229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2828.55688095029</v>
+        <v>1522.007484330367</v>
       </c>
       <c r="R36" t="n">
-        <v>3000.042615225857</v>
+        <v>1693.493218605934</v>
       </c>
       <c r="S36" t="n">
-        <v>2953.165703608739</v>
+        <v>1646.616306988816</v>
       </c>
       <c r="T36" t="n">
-        <v>2826.584619640356</v>
+        <v>1520.035223020434</v>
       </c>
       <c r="U36" t="n">
-        <v>2650.306792330765</v>
+        <v>1343.757395710843</v>
       </c>
       <c r="V36" t="n">
-        <v>2451.189274392765</v>
+        <v>1144.639877772842</v>
       </c>
       <c r="W36" t="n">
-        <v>2265.866520125959</v>
+        <v>959.3171235060363</v>
       </c>
       <c r="X36" t="n">
-        <v>2110.999084364839</v>
+        <v>804.4496877449163</v>
       </c>
       <c r="Y36" t="n">
-        <v>1984.51330514406</v>
+        <v>677.9639085241371</v>
       </c>
     </row>
     <row r="37">
@@ -7086,10 +7086,10 @@
         <v>424.2504623186469</v>
       </c>
       <c r="G37" t="n">
-        <v>259.4074623068151</v>
+        <v>259.4074623068154</v>
       </c>
       <c r="H37" t="n">
-        <v>126.1581326623631</v>
+        <v>126.1581326623634</v>
       </c>
       <c r="I37" t="n">
         <v>60.00085230451714</v>
@@ -7098,22 +7098,22 @@
         <v>111.85112164923</v>
       </c>
       <c r="K37" t="n">
-        <v>197.0570419559588</v>
+        <v>310.9355744973638</v>
       </c>
       <c r="L37" t="n">
-        <v>669.986924021982</v>
+        <v>838.1796988863142</v>
       </c>
       <c r="M37" t="n">
-        <v>1244.432112317834</v>
+        <v>1412.624887182167</v>
       </c>
       <c r="N37" t="n">
-        <v>1798.918713325492</v>
+        <v>1967.111488189824</v>
       </c>
       <c r="O37" t="n">
-        <v>2322.248498461212</v>
+        <v>2490.441273325545</v>
       </c>
       <c r="P37" t="n">
-        <v>2758.454888813457</v>
+        <v>2926.647663677789</v>
       </c>
       <c r="Q37" t="n">
         <v>2988.05859731983</v>
@@ -7204,22 +7204,22 @@
         <v>3000.042615225857</v>
       </c>
       <c r="T38" t="n">
-        <v>2787.277717656005</v>
+        <v>3000.042615225857</v>
       </c>
       <c r="U38" t="n">
-        <v>2787.277717656005</v>
+        <v>3000.042615225857</v>
       </c>
       <c r="V38" t="n">
-        <v>2787.277717656005</v>
+        <v>2637.425665159683</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.137318284743</v>
+        <v>2232.570210570717</v>
       </c>
       <c r="X38" t="n">
-        <v>2221.994854864054</v>
+        <v>1813.427747150028</v>
       </c>
       <c r="Y38" t="n">
-        <v>2221.994854864054</v>
+        <v>1795.695284379146</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>116.1829703662629</v>
       </c>
       <c r="J39" t="n">
-        <v>254.807486623683</v>
+        <v>198.8302852221419</v>
       </c>
       <c r="K39" t="n">
-        <v>396.0649115830114</v>
+        <v>340.0877101814703</v>
       </c>
       <c r="L39" t="n">
-        <v>586.0029516897978</v>
+        <v>530.0257502882567</v>
       </c>
       <c r="M39" t="n">
-        <v>807.6516856958385</v>
+        <v>751.6744842942975</v>
       </c>
       <c r="N39" t="n">
-        <v>1035.166802154627</v>
+        <v>979.1896007530861</v>
       </c>
       <c r="O39" t="n">
-        <v>1243.298685028535</v>
+        <v>1187.321483626994</v>
       </c>
       <c r="P39" t="n">
-        <v>1410.342870265769</v>
+        <v>1354.365668864229</v>
       </c>
       <c r="Q39" t="n">
         <v>1522.007484330367</v>
@@ -7341,7 +7341,7 @@
         <v>1085.639306080735</v>
       </c>
       <c r="M40" t="n">
-        <v>1244.432112317834</v>
+        <v>1660.084494376587</v>
       </c>
       <c r="N40" t="n">
         <v>1798.918713325492</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>914.0352817639612</v>
+        <v>2026.088681780866</v>
       </c>
       <c r="C41" t="n">
-        <v>914.0352817639612</v>
+        <v>1587.946208964289</v>
       </c>
       <c r="D41" t="n">
-        <v>914.0352817639612</v>
+        <v>1152.036424138734</v>
       </c>
       <c r="E41" t="n">
-        <v>480.2605369222563</v>
+        <v>1152.036424138734</v>
       </c>
       <c r="F41" t="n">
-        <v>52.39310733146407</v>
+        <v>724.1689945479416</v>
       </c>
       <c r="G41" t="n">
-        <v>52.39310733146407</v>
+        <v>324.4393138410191</v>
       </c>
       <c r="H41" t="n">
         <v>52.39310733146407</v>
@@ -7417,22 +7417,22 @@
         <v>461.7532512552407</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7613290140035</v>
+        <v>889.7233192114876</v>
       </c>
       <c r="M41" t="n">
-        <v>1368.126032240871</v>
+        <v>1538.088022438355</v>
       </c>
       <c r="N41" t="n">
-        <v>1660.662971418426</v>
+        <v>1829.817036171483</v>
       </c>
       <c r="O41" t="n">
-        <v>1936.134406625731</v>
+        <v>2105.288471378788</v>
       </c>
       <c r="P41" t="n">
-        <v>2171.242903318266</v>
+        <v>2340.396968071323</v>
       </c>
       <c r="Q41" t="n">
-        <v>2347.799593000769</v>
+        <v>2516.953657753826</v>
       </c>
       <c r="R41" t="n">
         <v>2619.655366573204</v>
@@ -7444,19 +7444,19 @@
         <v>2619.655366573204</v>
       </c>
       <c r="U41" t="n">
-        <v>2508.936273540137</v>
+        <v>2619.655366573204</v>
       </c>
       <c r="V41" t="n">
-        <v>2146.319323473964</v>
+        <v>2619.655366573204</v>
       </c>
       <c r="W41" t="n">
-        <v>1741.463868884997</v>
+        <v>2214.799911984237</v>
       </c>
       <c r="X41" t="n">
-        <v>1322.321405464308</v>
+        <v>2214.799911984237</v>
       </c>
       <c r="Y41" t="n">
-        <v>914.0352817639612</v>
+        <v>2214.799911984237</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1482.822155411643</v>
+        <v>549.0522624713209</v>
       </c>
       <c r="C42" t="n">
-        <v>1376.365694248285</v>
+        <v>442.5958013079631</v>
       </c>
       <c r="D42" t="n">
-        <v>1281.275405394838</v>
+        <v>347.5055124545164</v>
       </c>
       <c r="E42" t="n">
-        <v>1187.154990721792</v>
+        <v>253.3850977814701</v>
       </c>
       <c r="F42" t="n">
-        <v>1103.771152337954</v>
+        <v>170.0012593976317</v>
       </c>
       <c r="G42" t="n">
-        <v>1019.27860189884</v>
+        <v>85.50870895851824</v>
       </c>
       <c r="H42" t="n">
-        <v>986.163000271786</v>
+        <v>52.39310733146407</v>
       </c>
       <c r="I42" t="n">
-        <v>1042.345118333532</v>
+        <v>108.5752253932099</v>
       </c>
       <c r="J42" t="n">
-        <v>1180.969634590952</v>
+        <v>191.2225402490888</v>
       </c>
       <c r="K42" t="n">
-        <v>1322.22705955028</v>
+        <v>332.4799652084172</v>
       </c>
       <c r="L42" t="n">
-        <v>1512.165099657066</v>
+        <v>522.4180053152037</v>
       </c>
       <c r="M42" t="n">
-        <v>1733.813833663107</v>
+        <v>744.0667393212444</v>
       </c>
       <c r="N42" t="n">
-        <v>1961.328950121896</v>
+        <v>971.5818557800329</v>
       </c>
       <c r="O42" t="n">
-        <v>2169.460832995804</v>
+        <v>1179.713738653941</v>
       </c>
       <c r="P42" t="n">
-        <v>2336.505018233038</v>
+        <v>1346.757923891175</v>
       </c>
       <c r="Q42" t="n">
-        <v>2448.169632297636</v>
+        <v>1514.399739357314</v>
       </c>
       <c r="R42" t="n">
-        <v>2619.655366573204</v>
+        <v>1685.885473632881</v>
       </c>
       <c r="S42" t="n">
-        <v>2572.778454956085</v>
+        <v>1639.008562015763</v>
       </c>
       <c r="T42" t="n">
-        <v>2446.197370987703</v>
+        <v>1512.427478047381</v>
       </c>
       <c r="U42" t="n">
-        <v>2269.919543678112</v>
+        <v>1336.14965073779</v>
       </c>
       <c r="V42" t="n">
-        <v>2070.802025740111</v>
+        <v>1137.032132799789</v>
       </c>
       <c r="W42" t="n">
-        <v>1885.479271473305</v>
+        <v>951.7093785329832</v>
       </c>
       <c r="X42" t="n">
-        <v>1730.611835712185</v>
+        <v>796.8419427718633</v>
       </c>
       <c r="Y42" t="n">
-        <v>1604.126056491406</v>
+        <v>670.356163551084</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1101.547479448353</v>
+        <v>728.7679757687526</v>
       </c>
       <c r="C43" t="n">
-        <v>928.9857679315779</v>
+        <v>556.2062642519776</v>
       </c>
       <c r="D43" t="n">
-        <v>763.1077751331006</v>
+        <v>556.2062642519776</v>
       </c>
       <c r="E43" t="n">
-        <v>593.3497713838379</v>
+        <v>386.4482605027148</v>
       </c>
       <c r="F43" t="n">
-        <v>416.6427173455941</v>
+        <v>209.741206464471</v>
       </c>
       <c r="G43" t="n">
-        <v>251.7997173337623</v>
+        <v>185.6424369759161</v>
       </c>
       <c r="H43" t="n">
-        <v>118.5503876893103</v>
+        <v>52.39310733146407</v>
       </c>
       <c r="I43" t="n">
         <v>52.39310733146407</v>
@@ -7572,22 +7572,22 @@
         <v>190.8230618408668</v>
       </c>
       <c r="K43" t="n">
-        <v>276.0289821475956</v>
+        <v>550.7874367187312</v>
       </c>
       <c r="L43" t="n">
-        <v>803.2731065365459</v>
+        <v>749.0835425502414</v>
       </c>
       <c r="M43" t="n">
-        <v>1377.718294832398</v>
+        <v>864.0448636651809</v>
       </c>
       <c r="N43" t="n">
-        <v>1932.204895840056</v>
+        <v>1418.531464672839</v>
       </c>
       <c r="O43" t="n">
-        <v>2455.534680975776</v>
+        <v>1941.861249808559</v>
       </c>
       <c r="P43" t="n">
-        <v>2546.260415025136</v>
+        <v>2378.067640160804</v>
       </c>
       <c r="Q43" t="n">
         <v>2607.671348667177</v>
@@ -7602,19 +7602,19 @@
         <v>2230.772118132446</v>
       </c>
       <c r="U43" t="n">
-        <v>2230.772118132446</v>
+        <v>1952.379932383497</v>
       </c>
       <c r="V43" t="n">
-        <v>1943.816610002876</v>
+        <v>1665.424424253928</v>
       </c>
       <c r="W43" t="n">
-        <v>1766.177523519819</v>
+        <v>1393.398019840219</v>
       </c>
       <c r="X43" t="n">
-        <v>1520.785768853232</v>
+        <v>1148.006265173632</v>
       </c>
       <c r="Y43" t="n">
-        <v>1293.36609816734</v>
+        <v>920.5865944877398</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1334.690323291028</v>
+        <v>724.1689945479416</v>
       </c>
       <c r="C44" t="n">
-        <v>896.5478504744513</v>
+        <v>724.1689945479416</v>
       </c>
       <c r="D44" t="n">
-        <v>896.5478504744513</v>
+        <v>724.1689945479416</v>
       </c>
       <c r="E44" t="n">
-        <v>896.5478504744513</v>
+        <v>724.1689945479416</v>
       </c>
       <c r="F44" t="n">
         <v>724.1689945479416</v>
@@ -7648,52 +7648,52 @@
         <v>115.0161943290235</v>
       </c>
       <c r="J44" t="n">
-        <v>689.0355988560842</v>
+        <v>615.8698407334394</v>
       </c>
       <c r="K44" t="n">
-        <v>897.0079387081586</v>
+        <v>823.8421805855138</v>
       </c>
       <c r="L44" t="n">
-        <v>1155.016016466921</v>
+        <v>1081.850258344277</v>
       </c>
       <c r="M44" t="n">
-        <v>1442.099715807944</v>
+        <v>1368.933957685299</v>
       </c>
       <c r="N44" t="n">
-        <v>1733.828729541071</v>
+        <v>1660.662971418426</v>
       </c>
       <c r="O44" t="n">
-        <v>2009.300164748376</v>
+        <v>1936.134406625731</v>
       </c>
       <c r="P44" t="n">
-        <v>2244.408661440912</v>
+        <v>2171.242903318266</v>
       </c>
       <c r="Q44" t="n">
-        <v>2516.953657753826</v>
+        <v>2347.799593000769</v>
       </c>
       <c r="R44" t="n">
         <v>2619.655366573204</v>
       </c>
       <c r="S44" t="n">
-        <v>2574.016476145418</v>
+        <v>2619.655366573204</v>
       </c>
       <c r="T44" t="n">
-        <v>2361.251578575566</v>
+        <v>2406.890469003351</v>
       </c>
       <c r="U44" t="n">
-        <v>2102.162727946168</v>
+        <v>2147.801618373953</v>
       </c>
       <c r="V44" t="n">
-        <v>1739.545777879995</v>
+        <v>1785.18466830778</v>
       </c>
       <c r="W44" t="n">
-        <v>1334.690323291028</v>
+        <v>1380.329213718813</v>
       </c>
       <c r="X44" t="n">
-        <v>1334.690323291028</v>
+        <v>1380.329213718813</v>
       </c>
       <c r="Y44" t="n">
-        <v>1334.690323291028</v>
+        <v>972.0430900184664</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>108.5752253932099</v>
       </c>
       <c r="J45" t="n">
-        <v>247.1997416506299</v>
+        <v>191.2225402490888</v>
       </c>
       <c r="K45" t="n">
-        <v>388.4571666099583</v>
+        <v>388.4571666099582</v>
       </c>
       <c r="L45" t="n">
-        <v>578.3952067167446</v>
+        <v>578.3952067167445</v>
       </c>
       <c r="M45" t="n">
-        <v>800.0439407227854</v>
+        <v>800.0439407227852</v>
       </c>
       <c r="N45" t="n">
         <v>1027.559057181574</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.9689526270568</v>
+        <v>1101.547479448353</v>
       </c>
       <c r="C46" t="n">
-        <v>874.9689526270568</v>
+        <v>928.9857679315779</v>
       </c>
       <c r="D46" t="n">
         <v>763.1077751331006</v>
@@ -7809,16 +7809,16 @@
         <v>190.8230618408668</v>
       </c>
       <c r="K46" t="n">
-        <v>550.7874367187311</v>
+        <v>550.7874367187312</v>
       </c>
       <c r="L46" t="n">
-        <v>709.2689245951099</v>
+        <v>1078.031561107682</v>
       </c>
       <c r="M46" t="n">
-        <v>1283.714112890962</v>
+        <v>1306.303666822826</v>
       </c>
       <c r="N46" t="n">
-        <v>1838.20071389862</v>
+        <v>1418.531464672839</v>
       </c>
       <c r="O46" t="n">
         <v>1941.861249808559</v>
@@ -7833,25 +7833,25 @@
         <v>2619.655366573204</v>
       </c>
       <c r="S46" t="n">
-        <v>2619.655366573204</v>
+        <v>2473.454389714899</v>
       </c>
       <c r="T46" t="n">
-        <v>2376.97309499075</v>
+        <v>2230.772118132446</v>
       </c>
       <c r="U46" t="n">
-        <v>2098.580909241801</v>
+        <v>1952.379932383497</v>
       </c>
       <c r="V46" t="n">
-        <v>1811.625401112232</v>
+        <v>1766.177523519819</v>
       </c>
       <c r="W46" t="n">
-        <v>1539.598996698523</v>
+        <v>1766.177523519819</v>
       </c>
       <c r="X46" t="n">
-        <v>1294.207242031936</v>
+        <v>1520.785768853232</v>
       </c>
       <c r="Y46" t="n">
-        <v>1066.787571346044</v>
+        <v>1293.36609816734</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>239.5100572483141</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>25.73810709481488</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.247856393557</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>334.3211968967578</v>
       </c>
       <c r="M13" t="n">
-        <v>49.97917541508696</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>338.7555601389259</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>292.3263158922693</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>25.73810709481488</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.247856393557</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>74.20135692551332</v>
+        <v>334.3211968967578</v>
       </c>
       <c r="M16" t="n">
-        <v>329.4301932710911</v>
+        <v>292.3263158922695</v>
       </c>
       <c r="N16" t="n">
-        <v>331.6858867317472</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>338.7555601389261</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>201.2259117740792</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>243.4382859032088</v>
       </c>
       <c r="L19" t="n">
-        <v>409.2570710762078</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>403.2701231025208</v>
+        <v>403.270123102521</v>
       </c>
       <c r="N19" t="n">
         <v>406.0312577135576</v>
       </c>
       <c r="O19" t="n">
-        <v>91.52713404823567</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>201.2259117740791</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>56.54262767832438</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>409.2570710762078</v>
       </c>
       <c r="M22" t="n">
-        <v>14.9317385304761</v>
+        <v>14.93173853047574</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>489.3964338481179</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>423.7576042962562</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>302.6401470272276</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>56.54262767832438</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>115.028820748894</v>
+        <v>115.0288207488939</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>302.6401470272276</v>
       </c>
       <c r="Q26" t="n">
-        <v>302.6401470272281</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>201.2259117740792</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>2.583333039604327</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.057865430223</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>302.640147027228</v>
+        <v>473.5028386969821</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>56.54262767832424</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.54262767832438</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>115.0288207488936</v>
+        <v>115.0288207488939</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>441.3973592947834</v>
       </c>
       <c r="O32" t="n">
-        <v>190.2723707588679</v>
+        <v>471.7566788495906</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>201.2259117740789</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10518,16 +10518,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>26.87517282716317</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>188.5120928693041</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>361.1350624286221</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>302.6401470272282</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>56.5426276783237</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10746,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>115.0288207488939</v>
       </c>
       <c r="L37" t="n">
-        <v>367.5713529747817</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.5028386969825</v>
+        <v>473.5028386969821</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>56.54262767832438</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10989,10 +10989,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>44.27422739612143</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>26.87517282716317</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11065,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>171.6787779772565</v>
       </c>
       <c r="M41" t="n">
-        <v>364.9303069553998</v>
+        <v>364.9303069553996</v>
       </c>
       <c r="N41" t="n">
-        <v>0.8160863075025873</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>56.54262767832438</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>56.54262767832392</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11220,13 +11220,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>90.16349819244533</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,10 +11235,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>2.046704714603038</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>365.7463932629021</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>96.95788548526426</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>56.54262767832434</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>56.54262767832415</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11460,16 +11460,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>49.94671237918124</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>114.4553379800043</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -22552,7 +22552,7 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -22561,7 +22561,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>156.680193829003</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>41.23124748277456</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -22707,7 +22707,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -22716,16 +22716,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.62950052977762</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.8584983691371</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -22786,7 +22786,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,10 +22837,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>406.8412525062386</v>
       </c>
       <c r="Y5" t="n">
-        <v>357.0530969936292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.83994225927069</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22992,16 +22992,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>167.3732012308173</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>145.4887138344669</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>69.08014667770831</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>197.5888400156757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.0346945768795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>272.4217836655541</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>211.9606135828359</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>196.597833773484</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.3557224486869</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.3301761740106</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>81.21899079042294</v>
+        <v>77.3691639266616</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>35.84519708245574</v>
       </c>
       <c r="D14" t="n">
-        <v>26.13419914316341</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>396.0346945768795</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3301761740106</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>133.122498409159</v>
@@ -23706,16 +23706,16 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
-        <v>81.21899079042294</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.166740873265383</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.7323838998532</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.18250152350733</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T17" t="n">
         <v>210.6372485941537</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4979621231041</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>108.1153418362988</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>270.1515677539215</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>149.3807429149622</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.1945700117134</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.9168363480075</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>65.4957075542678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>144.7389670897214</v>
       </c>
       <c r="T19" t="n">
-        <v>240.2554488666287</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>196.8512122777344</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.7149900271162</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.7323838998532</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>269.3257444444595</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.18250152350733</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.6372485941537</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4979621231041</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>289.3358542482645</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.1945700117134</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.9168363480075</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>144.7389670897214</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>54.58088450949105</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6082638914593</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>137.8755119432929</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.7323838998532</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>45.18250152350733</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>124.646749066911</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4979621231041</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>22.94956311667232</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.7575823492567224</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.7323838998532</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>269.3257444444595</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.18250152350733</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T26" t="n">
-        <v>210.6372485941537</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>170.5074625958613</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>318.0273136156764</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>40.41613992815081</v>
+        <v>395.7323838998532</v>
       </c>
       <c r="H29" t="n">
-        <v>269.3257444444595</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.18250152350733</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.6372485941537</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4979621231041</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>26.10516323983319</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.7323838998532</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.6372485941537</v>
       </c>
       <c r="U32" t="n">
         <v>256.4979621231041</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>238.2646119744886</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25159,16 +25159,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>281.7950310154714</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.7323838998532</v>
       </c>
       <c r="H35" t="n">
         <v>269.3257444444595</v>
@@ -25210,13 +25210,13 @@
         <v>210.6372485941537</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4979621231041</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>61.11537196981413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>45.18250152350733</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.6372485941537</v>
       </c>
       <c r="U38" t="n">
         <v>256.4979621231041</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>256.1279046655281</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>386.6481243201706</v>
       </c>
     </row>
     <row r="39">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>235.2124568787213</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.7323838998532</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>269.3257444444595</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.18250152350733</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T41" t="n">
         <v>210.6372485941537</v>
       </c>
       <c r="U41" t="n">
-        <v>146.8860600203685</v>
+        <v>256.4979621231041</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.336788218044</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>65.4957075542678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6082638914593</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>93.44344475134508</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>176.6412202642391</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,7 +25876,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>252.9336879276397</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.18250152350732</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>53.47664715147597</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>144.7389670897214</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>99.74556827323298</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>349685.0463852405</v>
+        <v>349685.0463852406</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>311622.7992018063</v>
+        <v>311622.7992018064</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493399.4816325848</v>
+        <v>493399.4816325849</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493399.4816325848</v>
+        <v>493399.4816325849</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>493399.4816325848</v>
+        <v>493399.4816325849</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437785.8664293614</v>
+        <v>437785.8664293615</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>126212.4544401772</v>
       </c>
       <c r="D2" t="n">
-        <v>126212.4544401772</v>
+        <v>126212.4544401771</v>
       </c>
       <c r="E2" t="n">
         <v>129137.392258875</v>
@@ -26337,7 +26337,7 @@
         <v>198479.8729890154</v>
       </c>
       <c r="J2" t="n">
-        <v>198479.8729890154</v>
+        <v>198479.8729890153</v>
       </c>
       <c r="K2" t="n">
         <v>198479.8729890154</v>
@@ -26355,7 +26355,7 @@
         <v>178407.1505559333</v>
       </c>
       <c r="P2" t="n">
-        <v>178407.1505559333</v>
+        <v>178407.1505559332</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84531.46182232203</v>
+        <v>84531.46182232208</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61326.16495602454</v>
+        <v>61326.16495602459</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26420,43 +26420,43 @@
         <v>55557.24815388155</v>
       </c>
       <c r="C4" t="n">
-        <v>55557.24815388154</v>
+        <v>55557.24815388155</v>
       </c>
       <c r="D4" t="n">
         <v>55557.24815388156</v>
       </c>
       <c r="E4" t="n">
-        <v>10668.5848428186</v>
+        <v>10668.58484281859</v>
       </c>
       <c r="F4" t="n">
-        <v>10668.5848428186</v>
+        <v>10668.58484281859</v>
       </c>
       <c r="G4" t="n">
-        <v>9418.690199072611</v>
+        <v>9418.690199072607</v>
       </c>
       <c r="H4" t="n">
-        <v>9418.690199072611</v>
+        <v>9418.690199072609</v>
       </c>
       <c r="I4" t="n">
-        <v>30846.21496574561</v>
+        <v>30846.2149657456</v>
       </c>
       <c r="J4" t="n">
-        <v>30846.21496574561</v>
+        <v>30846.2149657456</v>
       </c>
       <c r="K4" t="n">
         <v>30846.2149657456</v>
       </c>
       <c r="L4" t="n">
-        <v>30846.21496574561</v>
+        <v>30846.2149657456</v>
       </c>
       <c r="M4" t="n">
-        <v>30846.21496574561</v>
+        <v>30846.2149657456</v>
       </c>
       <c r="N4" t="n">
-        <v>30846.21496574561</v>
+        <v>30846.2149657456</v>
       </c>
       <c r="O4" t="n">
-        <v>22010.43702065137</v>
+        <v>22010.43702065136</v>
       </c>
       <c r="P4" t="n">
         <v>22010.43702065136</v>
@@ -26487,7 +26487,7 @@
         <v>40534.57872102715</v>
       </c>
       <c r="H5" t="n">
-        <v>40534.57872102715</v>
+        <v>40534.57872102714</v>
       </c>
       <c r="I5" t="n">
         <v>54556.1521557175</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130960.8825106367</v>
+        <v>-131700.2391225523</v>
       </c>
       <c r="C6" t="n">
-        <v>11230.4181490733</v>
+        <v>10491.06153715761</v>
       </c>
       <c r="D6" t="n">
-        <v>11230.4181490733</v>
+        <v>10491.06153715758</v>
       </c>
       <c r="E6" t="n">
-        <v>-184269.1262325034</v>
+        <v>-184994.5545690919</v>
       </c>
       <c r="F6" t="n">
-        <v>85355.47009839337</v>
+        <v>84630.04176180487</v>
       </c>
       <c r="G6" t="n">
-        <v>15317.0564298011</v>
+        <v>14690.02997375229</v>
       </c>
       <c r="H6" t="n">
-        <v>99848.51825212312</v>
+        <v>99221.49179607435</v>
       </c>
       <c r="I6" t="n">
-        <v>51751.34091152776</v>
+        <v>51356.11486413033</v>
       </c>
       <c r="J6" t="n">
-        <v>2063.040522562093</v>
+        <v>1667.814475164666</v>
       </c>
       <c r="K6" t="n">
-        <v>113077.5058675523</v>
+        <v>112682.2798201549</v>
       </c>
       <c r="L6" t="n">
-        <v>113077.5058675523</v>
+        <v>112682.2798201549</v>
       </c>
       <c r="M6" t="n">
-        <v>113077.5058675523</v>
+        <v>112682.2798201549</v>
       </c>
       <c r="N6" t="n">
-        <v>113077.5058675523</v>
+        <v>112682.2798201549</v>
       </c>
       <c r="O6" t="n">
-        <v>107622.4475590848</v>
+        <v>107131.6371191489</v>
       </c>
       <c r="P6" t="n">
-        <v>107622.4475590847</v>
+        <v>107131.6371191489</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>335.6031734147081</v>
       </c>
       <c r="G3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="H3" t="n">
         <v>410.8029543249759</v>
       </c>
       <c r="I3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="J3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="K3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="L3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="M3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="N3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="O3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
       <c r="P3" t="n">
-        <v>410.8029543249759</v>
+        <v>410.802954324976</v>
       </c>
     </row>
     <row r="4">
@@ -26807,7 +26807,7 @@
         <v>519.3926696832677</v>
       </c>
       <c r="H4" t="n">
-        <v>519.3926696832677</v>
+        <v>519.3926696832676</v>
       </c>
       <c r="I4" t="n">
         <v>750.0106538064642</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>75.1997809102678</v>
+        <v>75.19978091026786</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>230.6179841231965</v>
+        <v>230.6179841231967</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201044</v>
@@ -32232,7 +32232,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I17" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J17" t="n">
         <v>140.1663808829726</v>
@@ -32244,10 +32244,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M17" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N17" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O17" t="n">
         <v>278.2539749568735</v>
@@ -32262,10 +32262,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S17" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T17" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U17" t="n">
         <v>0.1321175330492384</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H18" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I18" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J18" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K18" t="n">
         <v>142.6842676356853</v>
@@ -32323,10 +32323,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M18" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N18" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O18" t="n">
         <v>210.2342251251601</v>
@@ -32344,7 +32344,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T18" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U18" t="n">
         <v>0.05813249353655323</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H19" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I19" t="n">
         <v>22.27764217880362</v>
@@ -32399,7 +32399,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L19" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M19" t="n">
         <v>116.1225465807469</v>
@@ -32411,10 +32411,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P19" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R19" t="n">
         <v>33.30871167362837</v>
@@ -32423,7 +32423,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T19" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U19" t="n">
         <v>0.04040684796639112</v>
@@ -32469,7 +32469,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I20" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100959</v>
       </c>
       <c r="J20" t="n">
         <v>140.1663808829726</v>
@@ -32484,7 +32484,7 @@
         <v>289.9835346879012</v>
       </c>
       <c r="N20" t="n">
-        <v>294.6757714476031</v>
+        <v>294.675771447603</v>
       </c>
       <c r="O20" t="n">
         <v>278.2539749568735</v>
@@ -32496,16 +32496,16 @@
         <v>178.3400905883869</v>
       </c>
       <c r="R20" t="n">
-        <v>103.7390998175529</v>
+        <v>103.7390998175528</v>
       </c>
       <c r="S20" t="n">
         <v>37.63285355449403</v>
       </c>
       <c r="T20" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538015</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1321175330492384</v>
+        <v>0.1321175330492383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556085</v>
       </c>
       <c r="H21" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166009</v>
       </c>
       <c r="I21" t="n">
         <v>30.42267161746284</v>
       </c>
       <c r="J21" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805949</v>
       </c>
       <c r="K21" t="n">
         <v>142.6842676356853</v>
@@ -32575,16 +32575,16 @@
         <v>112.7925394591896</v>
       </c>
       <c r="R21" t="n">
-        <v>54.86157190022983</v>
+        <v>54.86157190022982</v>
       </c>
       <c r="S21" t="n">
         <v>16.41274067515351</v>
       </c>
       <c r="T21" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006157</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05813249353655323</v>
+        <v>0.05813249353655321</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171696</v>
       </c>
       <c r="H22" t="n">
-        <v>6.586316218521749</v>
+        <v>6.586316218521748</v>
       </c>
       <c r="I22" t="n">
-        <v>22.27764217880362</v>
+        <v>22.27764217880361</v>
       </c>
       <c r="J22" t="n">
-        <v>52.37400943910389</v>
+        <v>52.37400943910388</v>
       </c>
       <c r="K22" t="n">
-        <v>86.06658616841297</v>
+        <v>86.06658616841295</v>
       </c>
       <c r="L22" t="n">
         <v>110.1355986070599</v>
       </c>
       <c r="M22" t="n">
-        <v>116.1225465807469</v>
+        <v>116.1225465807468</v>
       </c>
       <c r="N22" t="n">
         <v>113.3614119697102</v>
@@ -32648,13 +32648,13 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P22" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081108</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307135</v>
       </c>
       <c r="R22" t="n">
-        <v>33.30871167362837</v>
+        <v>33.30871167362836</v>
       </c>
       <c r="S22" t="n">
         <v>12.90998792526194</v>
@@ -32663,7 +32663,7 @@
         <v>3.165203090700633</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04040684796639112</v>
+        <v>0.04040684796639111</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I23" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J23" t="n">
         <v>140.1663808829726</v>
@@ -32718,10 +32718,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M23" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N23" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O23" t="n">
         <v>278.2539749568735</v>
@@ -32736,10 +32736,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S23" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T23" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U23" t="n">
         <v>0.1321175330492384</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H24" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I24" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J24" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K24" t="n">
         <v>142.6842676356853</v>
@@ -32797,10 +32797,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M24" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N24" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O24" t="n">
         <v>210.2342251251601</v>
@@ -32818,7 +32818,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T24" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U24" t="n">
         <v>0.05813249353655323</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H25" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I25" t="n">
         <v>22.27764217880362</v>
@@ -32873,7 +32873,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L25" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M25" t="n">
         <v>116.1225465807469</v>
@@ -32885,10 +32885,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P25" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q25" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R25" t="n">
         <v>33.30871167362837</v>
@@ -32897,7 +32897,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T25" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U25" t="n">
         <v>0.04040684796639112</v>
@@ -32943,7 +32943,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I26" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J26" t="n">
         <v>140.1663808829726</v>
@@ -32955,10 +32955,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M26" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N26" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O26" t="n">
         <v>278.2539749568735</v>
@@ -32973,10 +32973,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S26" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T26" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U26" t="n">
         <v>0.1321175330492384</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H27" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I27" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J27" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K27" t="n">
         <v>142.6842676356853</v>
@@ -33034,10 +33034,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M27" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N27" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O27" t="n">
         <v>210.2342251251601</v>
@@ -33055,7 +33055,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T27" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U27" t="n">
         <v>0.05813249353655323</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H28" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I28" t="n">
         <v>22.27764217880362</v>
@@ -33110,7 +33110,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L28" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M28" t="n">
         <v>116.1225465807469</v>
@@ -33122,10 +33122,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P28" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q28" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R28" t="n">
         <v>33.30871167362837</v>
@@ -33134,7 +33134,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T28" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U28" t="n">
         <v>0.04040684796639112</v>
@@ -33180,7 +33180,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I29" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J29" t="n">
         <v>140.1663808829726</v>
@@ -33192,10 +33192,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M29" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N29" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O29" t="n">
         <v>278.2539749568735</v>
@@ -33210,10 +33210,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S29" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T29" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U29" t="n">
         <v>0.1321175330492384</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H30" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I30" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J30" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K30" t="n">
         <v>142.6842676356853</v>
@@ -33271,10 +33271,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M30" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N30" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O30" t="n">
         <v>210.2342251251601</v>
@@ -33292,7 +33292,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T30" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U30" t="n">
         <v>0.05813249353655323</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H31" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I31" t="n">
         <v>22.27764217880362</v>
@@ -33347,7 +33347,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L31" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M31" t="n">
         <v>116.1225465807469</v>
@@ -33359,10 +33359,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P31" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R31" t="n">
         <v>33.30871167362837</v>
@@ -33371,7 +33371,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T31" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U31" t="n">
         <v>0.04040684796639112</v>
@@ -33417,7 +33417,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I32" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J32" t="n">
         <v>140.1663808829726</v>
@@ -33429,10 +33429,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M32" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N32" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O32" t="n">
         <v>278.2539749568735</v>
@@ -33447,10 +33447,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S32" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T32" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U32" t="n">
         <v>0.1321175330492384</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H33" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I33" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J33" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K33" t="n">
         <v>142.6842676356853</v>
@@ -33508,10 +33508,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M33" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N33" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O33" t="n">
         <v>210.2342251251601</v>
@@ -33529,7 +33529,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T33" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U33" t="n">
         <v>0.05813249353655323</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H34" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I34" t="n">
         <v>22.27764217880362</v>
@@ -33584,7 +33584,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L34" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M34" t="n">
         <v>116.1225465807469</v>
@@ -33596,10 +33596,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P34" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R34" t="n">
         <v>33.30871167362837</v>
@@ -33608,7 +33608,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T34" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U34" t="n">
         <v>0.04040684796639112</v>
@@ -33654,7 +33654,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I35" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J35" t="n">
         <v>140.1663808829726</v>
@@ -33666,10 +33666,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M35" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N35" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O35" t="n">
         <v>278.2539749568735</v>
@@ -33684,10 +33684,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S35" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T35" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U35" t="n">
         <v>0.1321175330492384</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H36" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I36" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J36" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K36" t="n">
         <v>142.6842676356853</v>
@@ -33745,10 +33745,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M36" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N36" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O36" t="n">
         <v>210.2342251251601</v>
@@ -33766,7 +33766,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T36" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U36" t="n">
         <v>0.05813249353655323</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H37" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I37" t="n">
         <v>22.27764217880362</v>
@@ -33821,7 +33821,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L37" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M37" t="n">
         <v>116.1225465807469</v>
@@ -33833,10 +33833,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P37" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q37" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R37" t="n">
         <v>33.30871167362837</v>
@@ -33845,7 +33845,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T37" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U37" t="n">
         <v>0.04040684796639112</v>
@@ -33891,7 +33891,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I38" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J38" t="n">
         <v>140.1663808829726</v>
@@ -33903,10 +33903,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M38" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N38" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O38" t="n">
         <v>278.2539749568735</v>
@@ -33921,10 +33921,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S38" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T38" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U38" t="n">
         <v>0.1321175330492384</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H39" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I39" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J39" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K39" t="n">
         <v>142.6842676356853</v>
@@ -33982,10 +33982,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M39" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N39" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O39" t="n">
         <v>210.2342251251601</v>
@@ -34003,7 +34003,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T39" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U39" t="n">
         <v>0.05813249353655323</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H40" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I40" t="n">
         <v>22.27764217880362</v>
@@ -34058,7 +34058,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L40" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M40" t="n">
         <v>116.1225465807469</v>
@@ -34070,10 +34070,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P40" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R40" t="n">
         <v>33.30871167362837</v>
@@ -34082,7 +34082,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T40" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U40" t="n">
         <v>0.04040684796639112</v>
@@ -34128,7 +34128,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I41" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J41" t="n">
         <v>140.1663808829726</v>
@@ -34140,10 +34140,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M41" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N41" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O41" t="n">
         <v>278.2539749568735</v>
@@ -34158,10 +34158,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S41" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T41" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U41" t="n">
         <v>0.1321175330492384</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H42" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I42" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J42" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K42" t="n">
         <v>142.6842676356853</v>
@@ -34219,10 +34219,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M42" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N42" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O42" t="n">
         <v>210.2342251251601</v>
@@ -34240,7 +34240,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T42" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U42" t="n">
         <v>0.05813249353655323</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H43" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I43" t="n">
         <v>22.27764217880362</v>
@@ -34295,7 +34295,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L43" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M43" t="n">
         <v>116.1225465807469</v>
@@ -34307,10 +34307,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P43" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q43" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R43" t="n">
         <v>33.30871167362837</v>
@@ -34319,7 +34319,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T43" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U43" t="n">
         <v>0.04040684796639112</v>
@@ -34365,7 +34365,7 @@
         <v>16.91310856675641</v>
       </c>
       <c r="I44" t="n">
-        <v>63.6682649110096</v>
+        <v>63.66826491100961</v>
       </c>
       <c r="J44" t="n">
         <v>140.1663808829726</v>
@@ -34377,10 +34377,10 @@
         <v>260.6142199583463</v>
       </c>
       <c r="M44" t="n">
-        <v>289.9835346879012</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N44" t="n">
-        <v>294.6757714476031</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O44" t="n">
         <v>278.2539749568735</v>
@@ -34395,10 +34395,10 @@
         <v>103.7390998175529</v>
       </c>
       <c r="S44" t="n">
-        <v>37.63285355449403</v>
+        <v>37.63285355449404</v>
       </c>
       <c r="T44" t="n">
-        <v>7.229306261538017</v>
+        <v>7.229306261538018</v>
       </c>
       <c r="U44" t="n">
         <v>0.1321175330492384</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8836139017556086</v>
+        <v>0.8836139017556087</v>
       </c>
       <c r="H45" t="n">
-        <v>8.533850051166011</v>
+        <v>8.533850051166013</v>
       </c>
       <c r="I45" t="n">
-        <v>30.42267161746284</v>
+        <v>30.42267161746285</v>
       </c>
       <c r="J45" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K45" t="n">
         <v>142.6842676356853</v>
@@ -34456,10 +34456,10 @@
         <v>191.8566061684711</v>
       </c>
       <c r="M45" t="n">
-        <v>223.8876101071118</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N45" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O45" t="n">
         <v>210.2342251251601</v>
@@ -34477,7 +34477,7 @@
         <v>16.41274067515351</v>
       </c>
       <c r="T45" t="n">
-        <v>3.561584104006158</v>
+        <v>3.561584104006159</v>
       </c>
       <c r="U45" t="n">
         <v>0.05813249353655323</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7407922127171697</v>
+        <v>0.7407922127171698</v>
       </c>
       <c r="H46" t="n">
-        <v>6.586316218521749</v>
+        <v>6.58631621852175</v>
       </c>
       <c r="I46" t="n">
         <v>22.27764217880362</v>
@@ -34532,7 +34532,7 @@
         <v>86.06658616841297</v>
       </c>
       <c r="L46" t="n">
-        <v>110.1355986070599</v>
+        <v>110.13559860706</v>
       </c>
       <c r="M46" t="n">
         <v>116.1225465807469</v>
@@ -34544,10 +34544,10 @@
         <v>104.7076120302414</v>
       </c>
       <c r="P46" t="n">
-        <v>89.59545089081109</v>
+        <v>89.59545089081111</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.03124610307136</v>
+        <v>62.03124610307137</v>
       </c>
       <c r="R46" t="n">
         <v>33.30871167362837</v>
@@ -34556,7 +34556,7 @@
         <v>12.90998792526194</v>
       </c>
       <c r="T46" t="n">
-        <v>3.165203090700633</v>
+        <v>3.165203090700634</v>
       </c>
       <c r="U46" t="n">
         <v>0.04040684796639112</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -35114,7 +35114,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>239.5100572483141</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35415,13 +35415,13 @@
         <v>171.6180187748791</v>
       </c>
       <c r="L11" t="n">
-        <v>212.9073277935339</v>
+        <v>212.9073277935341</v>
       </c>
       <c r="M11" t="n">
         <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691254</v>
       </c>
       <c r="O11" t="n">
         <v>227.318026873075</v>
@@ -35433,7 +35433,7 @@
         <v>145.6939384646737</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.59173833354562</v>
+        <v>51.18057382505155</v>
       </c>
       <c r="J12" t="n">
-        <v>396.0369556447444</v>
+        <v>395.4481201532384</v>
       </c>
       <c r="K12" t="n">
         <v>116.5651135434841</v>
@@ -35570,25 +35570,25 @@
         <v>42.78665376469155</v>
       </c>
       <c r="K13" t="n">
-        <v>70.31161567606507</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L13" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M13" t="n">
-        <v>144.8448396641003</v>
+        <v>94.86566424901332</v>
       </c>
       <c r="N13" t="n">
         <v>92.60997078835715</v>
       </c>
       <c r="O13" t="n">
-        <v>424.2958575201044</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P13" t="n">
-        <v>424.2115665691178</v>
+        <v>365.5208178448804</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.67607918562089</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R13" t="n">
         <v>6.007722421746784</v>
@@ -35652,25 +35652,25 @@
         <v>171.6180187748791</v>
       </c>
       <c r="L14" t="n">
-        <v>212.9073277935339</v>
+        <v>212.907327793534</v>
       </c>
       <c r="M14" t="n">
         <v>236.900425020524</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691251</v>
       </c>
       <c r="O14" t="n">
         <v>227.3180268730753</v>
       </c>
       <c r="P14" t="n">
-        <v>194.0106767477457</v>
+        <v>194.0106767477459</v>
       </c>
       <c r="Q14" t="n">
         <v>145.6939384646737</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180566</v>
+        <v>84.74907675180543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.59173833354562</v>
+        <v>51.18057382505155</v>
       </c>
       <c r="J15" t="n">
-        <v>396.0369556447444</v>
+        <v>68.20026375968141</v>
       </c>
       <c r="K15" t="n">
         <v>116.5651135434841</v>
@@ -35740,13 +35740,13 @@
         <v>187.7446469841394</v>
       </c>
       <c r="O15" t="n">
-        <v>171.7496730964874</v>
+        <v>171.7496730964875</v>
       </c>
       <c r="P15" t="n">
         <v>137.8442543785809</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.14523357605344</v>
+        <v>419.3930899696104</v>
       </c>
       <c r="R15" t="n">
         <v>163.1751954986662</v>
@@ -35807,25 +35807,25 @@
         <v>42.78665376469155</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606507</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L16" t="n">
-        <v>164.1760175488598</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>387.1919801412828</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>92.60997078835703</v>
       </c>
       <c r="O16" t="n">
-        <v>424.2958575201044</v>
+        <v>85.54029738117833</v>
       </c>
       <c r="P16" t="n">
         <v>73.19450195261106</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562089</v>
+        <v>220.5677709677748</v>
       </c>
       <c r="R16" t="n">
         <v>6.007722421746784</v>
@@ -35889,7 +35889,7 @@
         <v>210.0730705576509</v>
       </c>
       <c r="L17" t="n">
-        <v>260.6142199583463</v>
+        <v>260.6142199583462</v>
       </c>
       <c r="M17" t="n">
         <v>289.9835346879012</v>
@@ -35901,13 +35901,13 @@
         <v>278.2539749568737</v>
       </c>
       <c r="P17" t="n">
-        <v>237.4833299924599</v>
+        <v>237.4833299924601</v>
       </c>
       <c r="Q17" t="n">
         <v>178.3400905883868</v>
       </c>
       <c r="R17" t="n">
-        <v>103.7390998175529</v>
+        <v>103.7390998175531</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>30.42267161746285</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J18" t="n">
-        <v>284.7080479921387</v>
+        <v>83.48213621805951</v>
       </c>
       <c r="K18" t="n">
         <v>142.6842676356853</v>
@@ -35974,19 +35974,19 @@
         <v>223.8876101071119</v>
       </c>
       <c r="N18" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O18" t="n">
-        <v>210.23422512516</v>
+        <v>210.2342251251602</v>
       </c>
       <c r="P18" t="n">
-        <v>168.7315002396301</v>
+        <v>168.7315002396303</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.7925394591896</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R18" t="n">
-        <v>54.86157190022982</v>
+        <v>173.2179134096639</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.37400943910389</v>
+        <v>139.8282368781846</v>
       </c>
       <c r="K19" t="n">
-        <v>86.06658616841295</v>
+        <v>329.5048720716218</v>
       </c>
       <c r="L19" t="n">
+        <v>110.1355986070599</v>
+      </c>
+      <c r="M19" t="n">
         <v>519.3926696832677</v>
-      </c>
-      <c r="M19" t="n">
-        <v>519.3926696832676</v>
       </c>
       <c r="N19" t="n">
         <v>519.3926696832677</v>
       </c>
       <c r="O19" t="n">
-        <v>196.2347460784772</v>
+        <v>104.7076120302415</v>
       </c>
       <c r="P19" t="n">
-        <v>89.59545089081098</v>
+        <v>89.59545089081121</v>
       </c>
       <c r="Q19" t="n">
-        <v>62.03124610307145</v>
+        <v>231.9229378852251</v>
       </c>
       <c r="R19" t="n">
         <v>12.10506859194653</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>63.25564343187821</v>
+        <v>63.2556434318782</v>
       </c>
       <c r="J20" t="n">
         <v>140.1663808829726</v>
@@ -36132,10 +36132,10 @@
         <v>289.9835346879012</v>
       </c>
       <c r="N20" t="n">
-        <v>294.675771447603</v>
+        <v>294.6757714476031</v>
       </c>
       <c r="O20" t="n">
-        <v>278.2539749568737</v>
+        <v>278.2539749568734</v>
       </c>
       <c r="P20" t="n">
         <v>237.4833299924601</v>
@@ -36144,7 +36144,7 @@
         <v>178.3400905883868</v>
       </c>
       <c r="R20" t="n">
-        <v>103.7390998175531</v>
+        <v>103.7390998175529</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.42267161746285</v>
+        <v>56.74961420378365</v>
       </c>
       <c r="J21" t="n">
-        <v>83.48213621805952</v>
+        <v>83.48213621805949</v>
       </c>
       <c r="K21" t="n">
         <v>142.6842676356853</v>
@@ -36211,7 +36211,7 @@
         <v>223.8876101071119</v>
       </c>
       <c r="N21" t="n">
-        <v>431.0391607223504</v>
+        <v>229.8132489482712</v>
       </c>
       <c r="O21" t="n">
         <v>210.23422512516</v>
@@ -36220,10 +36220,10 @@
         <v>168.7315002396301</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.7925394591896</v>
+        <v>169.335167137514</v>
       </c>
       <c r="R21" t="n">
-        <v>54.86157190022982</v>
+        <v>173.2179134096639</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,10 +36287,10 @@
         <v>519.3926696832677</v>
       </c>
       <c r="M22" t="n">
-        <v>131.054285111223</v>
+        <v>131.0542851112225</v>
       </c>
       <c r="N22" t="n">
-        <v>113.3614119697099</v>
+        <v>113.3614119697102</v>
       </c>
       <c r="O22" t="n">
         <v>104.7076120302415</v>
@@ -36299,10 +36299,10 @@
         <v>440.612515507318</v>
       </c>
       <c r="Q22" t="n">
-        <v>231.9229378852253</v>
+        <v>231.9229378852251</v>
       </c>
       <c r="R22" t="n">
-        <v>12.10506859194653</v>
+        <v>12.10506859194652</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>63.25564343187821</v>
       </c>
       <c r="J23" t="n">
-        <v>140.1663808829726</v>
+        <v>579.8175803303644</v>
       </c>
       <c r="K23" t="n">
         <v>210.0730705576509</v>
       </c>
       <c r="L23" t="n">
-        <v>750.0106538064642</v>
+        <v>260.6142199583463</v>
       </c>
       <c r="M23" t="n">
-        <v>713.7411389841575</v>
+        <v>289.9835346879013</v>
       </c>
       <c r="N23" t="n">
-        <v>294.675771447603</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O23" t="n">
         <v>278.2539749568737</v>
@@ -36378,10 +36378,10 @@
         <v>237.4833299924603</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.3400905883868</v>
+        <v>480.9802376156144</v>
       </c>
       <c r="R23" t="n">
-        <v>103.7390998175529</v>
+        <v>274.6017914873073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.74961420378364</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J24" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K24" t="n">
         <v>142.6842676356853</v>
       </c>
       <c r="L24" t="n">
-        <v>248.3992338467955</v>
+        <v>191.8566061684712</v>
       </c>
       <c r="M24" t="n">
         <v>223.8876101071119</v>
       </c>
       <c r="N24" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O24" t="n">
         <v>210.23422512516</v>
       </c>
       <c r="P24" t="n">
-        <v>168.7315002396301</v>
+        <v>168.7315002396303</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.7925394591896</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R24" t="n">
         <v>173.2179134096639</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.37400943910388</v>
+        <v>52.37400943910389</v>
       </c>
       <c r="K25" t="n">
-        <v>201.095406917307</v>
+        <v>201.0954069173069</v>
       </c>
       <c r="L25" t="n">
         <v>532.5698226151014</v>
       </c>
       <c r="M25" t="n">
-        <v>580.2476649453055</v>
+        <v>580.2476649453056</v>
       </c>
       <c r="N25" t="n">
         <v>560.0874757653107</v>
@@ -36612,10 +36612,10 @@
         <v>278.2539749568737</v>
       </c>
       <c r="P26" t="n">
-        <v>237.4833299924599</v>
+        <v>540.1234770196879</v>
       </c>
       <c r="Q26" t="n">
-        <v>480.9802376156149</v>
+        <v>178.3400905883868</v>
       </c>
       <c r="R26" t="n">
         <v>274.6017914873073</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>30.42267161746285</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J27" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K27" t="n">
         <v>142.6842676356853</v>
       </c>
       <c r="L27" t="n">
-        <v>191.8566061684711</v>
+        <v>191.8566061684712</v>
       </c>
       <c r="M27" t="n">
-        <v>425.1135218811911</v>
+        <v>223.8876101071119</v>
       </c>
       <c r="N27" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O27" t="n">
         <v>210.23422512516</v>
       </c>
       <c r="P27" t="n">
-        <v>168.7315002396301</v>
+        <v>168.7315002396303</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.7925394591896</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R27" t="n">
-        <v>54.86157190022982</v>
+        <v>173.2179134096639</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,22 +36758,22 @@
         <v>363.6003786645095</v>
       </c>
       <c r="L28" t="n">
-        <v>532.5698226151017</v>
+        <v>112.7189316466643</v>
       </c>
       <c r="M28" t="n">
         <v>580.2476649453056</v>
       </c>
       <c r="N28" t="n">
-        <v>560.087475765311</v>
+        <v>560.0874757653107</v>
       </c>
       <c r="O28" t="n">
-        <v>528.6159445815356</v>
+        <v>528.6159445815358</v>
       </c>
       <c r="P28" t="n">
-        <v>89.59545089081121</v>
+        <v>440.6125155073178</v>
       </c>
       <c r="Q28" t="n">
-        <v>163.0891115332943</v>
+        <v>231.9229378852251</v>
       </c>
       <c r="R28" t="n">
         <v>12.10506859194653</v>
@@ -36849,13 +36849,13 @@
         <v>278.2539749568737</v>
       </c>
       <c r="P29" t="n">
-        <v>237.4833299924599</v>
+        <v>237.4833299924603</v>
       </c>
       <c r="Q29" t="n">
-        <v>480.9802376156149</v>
+        <v>651.8429292853689</v>
       </c>
       <c r="R29" t="n">
-        <v>274.6017914873073</v>
+        <v>103.7390998175529</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>56.74961420378364</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J30" t="n">
-        <v>83.48213621805951</v>
+        <v>140.0247638963838</v>
       </c>
       <c r="K30" t="n">
         <v>142.6842676356853</v>
@@ -36922,7 +36922,7 @@
         <v>223.8876101071119</v>
       </c>
       <c r="N30" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O30" t="n">
         <v>210.23422512516</v>
@@ -36931,7 +36931,7 @@
         <v>168.7315002396301</v>
       </c>
       <c r="Q30" t="n">
-        <v>169.335167137514</v>
+        <v>112.7925394591896</v>
       </c>
       <c r="R30" t="n">
         <v>173.2179134096639</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.37400943910388</v>
+        <v>52.37400943910389</v>
       </c>
       <c r="K31" t="n">
-        <v>201.0954069173066</v>
+        <v>201.0954069173069</v>
       </c>
       <c r="L31" t="n">
         <v>532.5698226151014</v>
       </c>
       <c r="M31" t="n">
-        <v>580.2476649453055</v>
+        <v>580.2476649453056</v>
       </c>
       <c r="N31" t="n">
         <v>560.0874757653107</v>
@@ -37007,7 +37007,7 @@
         <v>528.6159445815358</v>
       </c>
       <c r="P31" t="n">
-        <v>440.6125155073182</v>
+        <v>440.6125155073178</v>
       </c>
       <c r="Q31" t="n">
         <v>62.03124610307123</v>
@@ -37080,19 +37080,19 @@
         <v>289.9835346879012</v>
       </c>
       <c r="N32" t="n">
-        <v>294.675771447603</v>
+        <v>736.0731307423866</v>
       </c>
       <c r="O32" t="n">
-        <v>468.5263457157414</v>
+        <v>750.0106538064642</v>
       </c>
       <c r="P32" t="n">
-        <v>237.4833299924601</v>
+        <v>237.4833299924603</v>
       </c>
       <c r="Q32" t="n">
-        <v>730.3590663041391</v>
+        <v>178.3400905883868</v>
       </c>
       <c r="R32" t="n">
-        <v>274.6017914873073</v>
+        <v>103.7390998175529</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30.42267161746285</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J33" t="n">
-        <v>83.48213621805951</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K33" t="n">
         <v>142.6842676356853</v>
       </c>
       <c r="L33" t="n">
-        <v>191.8566061684711</v>
+        <v>191.8566061684712</v>
       </c>
       <c r="M33" t="n">
         <v>223.8876101071119</v>
@@ -37168,10 +37168,10 @@
         <v>168.7315002396303</v>
       </c>
       <c r="Q33" t="n">
-        <v>314.0184512332685</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R33" t="n">
-        <v>54.86157190022982</v>
+        <v>173.2179134096639</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>52.37400943910388</v>
+        <v>139.8282368781846</v>
       </c>
       <c r="K34" t="n">
         <v>363.6003786645095</v>
       </c>
       <c r="L34" t="n">
-        <v>532.5698226151014</v>
+        <v>532.5698226151017</v>
       </c>
       <c r="M34" t="n">
-        <v>580.2476649453055</v>
+        <v>580.2476649453056</v>
       </c>
       <c r="N34" t="n">
-        <v>560.087475765311</v>
+        <v>140.2365847968733</v>
       </c>
       <c r="O34" t="n">
-        <v>528.6159445815356</v>
+        <v>528.6159445815358</v>
       </c>
       <c r="P34" t="n">
-        <v>278.1075437601153</v>
+        <v>440.6125155073178</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.03124610307123</v>
+        <v>231.9229378852251</v>
       </c>
       <c r="R34" t="n">
         <v>12.10506859194653</v>
@@ -37305,7 +37305,7 @@
         <v>63.25564343187821</v>
       </c>
       <c r="J35" t="n">
-        <v>579.8175803303644</v>
+        <v>501.3014433115947</v>
       </c>
       <c r="K35" t="n">
         <v>210.0730705576509</v>
@@ -37317,19 +37317,19 @@
         <v>289.9835346879013</v>
       </c>
       <c r="N35" t="n">
-        <v>597.3159184748313</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O35" t="n">
-        <v>278.2539749568737</v>
+        <v>278.2539749568734</v>
       </c>
       <c r="P35" t="n">
-        <v>237.4833299924599</v>
+        <v>237.4833299924601</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.3400905883868</v>
+        <v>730.3590663041391</v>
       </c>
       <c r="R35" t="n">
-        <v>274.6017914873073</v>
+        <v>103.7390998175529</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>56.74961420378372</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J36" t="n">
-        <v>140.0247638963831</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K36" t="n">
         <v>142.6842676356853</v>
@@ -37396,19 +37396,19 @@
         <v>223.8876101071119</v>
       </c>
       <c r="N36" t="n">
-        <v>229.8132489482714</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O36" t="n">
-        <v>210.2342251251603</v>
+        <v>210.23422512516</v>
       </c>
       <c r="P36" t="n">
         <v>168.7315002396303</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.7925394591898</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R36" t="n">
-        <v>173.2179134096641</v>
+        <v>173.2179134096639</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.37400943910388</v>
+        <v>52.37400943910389</v>
       </c>
       <c r="K37" t="n">
-        <v>86.06658616841295</v>
+        <v>201.0954069173069</v>
       </c>
       <c r="L37" t="n">
-        <v>477.7069515818416</v>
+        <v>532.5698226151014</v>
       </c>
       <c r="M37" t="n">
-        <v>580.2476649453055</v>
+        <v>580.2476649453056</v>
       </c>
       <c r="N37" t="n">
         <v>560.0874757653107</v>
@@ -37484,7 +37484,7 @@
         <v>440.6125155073178</v>
       </c>
       <c r="Q37" t="n">
-        <v>231.9229378852251</v>
+        <v>62.03124610307123</v>
       </c>
       <c r="R37" t="n">
         <v>12.10506859194653</v>
@@ -37560,10 +37560,10 @@
         <v>278.2539749568737</v>
       </c>
       <c r="P38" t="n">
-        <v>237.4833299924599</v>
+        <v>237.4833299924603</v>
       </c>
       <c r="Q38" t="n">
-        <v>651.8429292853693</v>
+        <v>651.8429292853689</v>
       </c>
       <c r="R38" t="n">
         <v>103.7390998175529</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.74961420378364</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J39" t="n">
-        <v>140.0247638963839</v>
+        <v>83.48213621805952</v>
       </c>
       <c r="K39" t="n">
         <v>142.6842676356853</v>
       </c>
       <c r="L39" t="n">
-        <v>191.8566061684711</v>
+        <v>191.8566061684712</v>
       </c>
       <c r="M39" t="n">
         <v>223.8876101071119</v>
       </c>
       <c r="N39" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O39" t="n">
         <v>210.23422512516</v>
       </c>
       <c r="P39" t="n">
-        <v>168.7315002396301</v>
+        <v>168.7315002396303</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.7925394591896</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R39" t="n">
         <v>173.2179134096639</v>
@@ -37709,10 +37709,10 @@
         <v>532.5698226151017</v>
       </c>
       <c r="M40" t="n">
-        <v>160.3967739768682</v>
+        <v>580.2476649453056</v>
       </c>
       <c r="N40" t="n">
-        <v>560.0874757653107</v>
+        <v>140.2365847968733</v>
       </c>
       <c r="O40" t="n">
         <v>528.6159445815358</v>
@@ -37785,25 +37785,25 @@
         <v>210.0730705576509</v>
       </c>
       <c r="L41" t="n">
-        <v>260.6142199583463</v>
+        <v>432.2929979356028</v>
       </c>
       <c r="M41" t="n">
-        <v>654.913841643301</v>
+        <v>654.9138416433009</v>
       </c>
       <c r="N41" t="n">
-        <v>295.4918577551057</v>
+        <v>294.6757714476032</v>
       </c>
       <c r="O41" t="n">
-        <v>278.2539749568734</v>
+        <v>278.2539749568737</v>
       </c>
       <c r="P41" t="n">
-        <v>237.4833299924601</v>
+        <v>237.4833299924603</v>
       </c>
       <c r="Q41" t="n">
         <v>178.3400905883868</v>
       </c>
       <c r="R41" t="n">
-        <v>274.6017914873073</v>
+        <v>103.7390998175529</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>56.74961420378361</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J42" t="n">
-        <v>140.0247638963838</v>
+        <v>83.48213621805951</v>
       </c>
       <c r="K42" t="n">
         <v>142.6842676356853</v>
       </c>
       <c r="L42" t="n">
-        <v>191.856606168471</v>
+        <v>191.8566061684711</v>
       </c>
       <c r="M42" t="n">
         <v>223.8876101071119</v>
       </c>
       <c r="N42" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O42" t="n">
         <v>210.23422512516</v>
@@ -37879,10 +37879,10 @@
         <v>168.7315002396303</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.7925394591898</v>
+        <v>169.3351671375135</v>
       </c>
       <c r="R42" t="n">
-        <v>173.2179134096641</v>
+        <v>173.2179134096639</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>139.8282368781846</v>
       </c>
       <c r="K43" t="n">
-        <v>86.06658616841298</v>
+        <v>363.6003786645095</v>
       </c>
       <c r="L43" t="n">
-        <v>532.5698226151014</v>
+        <v>200.2990967995053</v>
       </c>
       <c r="M43" t="n">
-        <v>580.2476649453054</v>
+        <v>116.1225465807469</v>
       </c>
       <c r="N43" t="n">
-        <v>560.0874757653107</v>
+        <v>560.0874757653108</v>
       </c>
       <c r="O43" t="n">
-        <v>528.6159445815356</v>
+        <v>528.6159445815358</v>
       </c>
       <c r="P43" t="n">
-        <v>91.64215560541425</v>
+        <v>440.612515507318</v>
       </c>
       <c r="Q43" t="n">
-        <v>62.03124610307123</v>
+        <v>231.9229378852251</v>
       </c>
       <c r="R43" t="n">
         <v>12.10506859194653</v>
@@ -38016,7 +38016,7 @@
         <v>63.25564343187821</v>
       </c>
       <c r="J44" t="n">
-        <v>579.8175803303644</v>
+        <v>505.9127741458747</v>
       </c>
       <c r="K44" t="n">
         <v>210.0730705576509</v>
@@ -38031,16 +38031,16 @@
         <v>294.6757714476032</v>
       </c>
       <c r="O44" t="n">
-        <v>278.2539749568737</v>
+        <v>278.2539749568734</v>
       </c>
       <c r="P44" t="n">
-        <v>237.4833299924603</v>
+        <v>237.4833299924601</v>
       </c>
       <c r="Q44" t="n">
-        <v>275.2979760736512</v>
+        <v>178.3400905883868</v>
       </c>
       <c r="R44" t="n">
-        <v>103.7390998175529</v>
+        <v>274.6017914873073</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>56.74961420378364</v>
+        <v>56.74961420378366</v>
       </c>
       <c r="J45" t="n">
-        <v>140.0247638963838</v>
+        <v>83.48213621805951</v>
       </c>
       <c r="K45" t="n">
-        <v>142.6842676356853</v>
+        <v>199.2268953140095</v>
       </c>
       <c r="L45" t="n">
         <v>191.8566061684711</v>
@@ -38107,7 +38107,7 @@
         <v>223.8876101071119</v>
       </c>
       <c r="N45" t="n">
-        <v>229.8132489482712</v>
+        <v>229.8132489482713</v>
       </c>
       <c r="O45" t="n">
         <v>210.23422512516</v>
@@ -38180,16 +38180,16 @@
         <v>363.6003786645095</v>
       </c>
       <c r="L46" t="n">
-        <v>160.0823109862412</v>
+        <v>532.5698226151015</v>
       </c>
       <c r="M46" t="n">
-        <v>580.2476649453055</v>
+        <v>230.5778845607513</v>
       </c>
       <c r="N46" t="n">
-        <v>560.0874757653107</v>
+        <v>113.3614119697102</v>
       </c>
       <c r="O46" t="n">
-        <v>104.7076120302415</v>
+        <v>528.6159445815358</v>
       </c>
       <c r="P46" t="n">
         <v>440.612515507318</v>
